--- a/Doc/OpenNGS.xlsx
+++ b/Doc/OpenNGS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EE\OpenNGS\openngs-unity\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B069442E-DEC1-4D0F-8941-F58CE0639EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AE2286-60B5-4856-B960-F79B630F5D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4484" uniqueCount="1069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4486" uniqueCount="1071">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3364,6 +3364,13 @@
   </si>
   <si>
     <t>OpenNGS.Crypto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenNGS.Platform.GCloudPlatform</t>
+  </si>
+  <si>
+    <t>openngs.platform.eegames</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5999,15 +6006,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EBFF2F9-3D7E-4555-9CC1-23E5A50F10DD}">
   <dimension ref="A1:J654"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="C239" sqref="C239"/>
+    <sheetView tabSelected="1" topLeftCell="A414" workbookViewId="0">
+      <selection activeCell="D434" sqref="D434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.58203125" customWidth="1"/>
     <col min="2" max="2" width="38.08203125" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" style="63" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" style="63" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.58203125" style="63" customWidth="1"/>
     <col min="5" max="5" width="33.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.08203125" bestFit="1" customWidth="1"/>
@@ -15433,6 +15440,9 @@
       <c r="C434" s="64" t="s">
         <v>1058</v>
       </c>
+      <c r="D434" s="63" t="s">
+        <v>1070</v>
+      </c>
       <c r="F434" s="63" t="s">
         <v>1024</v>
       </c>
@@ -15456,6 +15466,9 @@
       <c r="C435" s="64" t="s">
         <v>1058</v>
       </c>
+      <c r="D435" s="63" t="s">
+        <v>1070</v>
+      </c>
       <c r="F435" s="63" t="s">
         <v>1024</v>
       </c>
@@ -15633,7 +15646,7 @@
         <v>1054</v>
       </c>
       <c r="C442" s="64" t="s">
-        <v>1059</v>
+        <v>1069</v>
       </c>
       <c r="D442" s="63" t="s">
         <v>1061</v>
@@ -15659,7 +15672,7 @@
         <v>1054</v>
       </c>
       <c r="C443" s="64" t="s">
-        <v>1059</v>
+        <v>1069</v>
       </c>
       <c r="D443" s="63" t="s">
         <v>1061</v>

--- a/Doc/OpenNGS.xlsx
+++ b/Doc/OpenNGS.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EE\OpenNGS\openngs-unity\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7558DF8-D2E7-4950-9EA5-DA26907E6C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15024AA-D26E-4787-820B-814F75CD4AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Packages" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="SaveData" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4374" uniqueCount="1096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4470" uniqueCount="1157">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3448,27 +3448,227 @@
     <t>openngs.security</t>
   </si>
   <si>
-    <t>Matrix graph</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阵图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OpenNGS.XR.Core</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>OpenNGS.XR.Interaction</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obtaining used space/free space</t>
+  </si>
+  <si>
+    <t>Setting/obtaining save data icons</t>
+  </si>
+  <si>
+    <t>Backing up/restoring save data</t>
+  </si>
+  <si>
+    <t>Creating save data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mounting existing save data (obtaining directory paths)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unmounting save data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deleting save data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Searching for save data (obtaining lists)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting/obtaining save data titles, detailed information, etc.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting up the save data memory and performing reads/writes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建存档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>映射到存在的存档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消映射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除存档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索存档（获取列表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取使用空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置存档标题等信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置存档图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备份/恢复存档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置存档内存/执行读写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table 4  Functions Used in Basic Processing of the Save Data Memory</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>sceSaveDataInitialize3()</t>
+  </si>
+  <si>
+    <t>Function that initializes the library</t>
+  </si>
+  <si>
+    <t>sceSaveDataSetupSaveDataMemory2()</t>
+  </si>
+  <si>
+    <t>Setup function for the save data memory</t>
+  </si>
+  <si>
+    <t>sceSaveDataSetSaveDataMemory2()</t>
+  </si>
+  <si>
+    <t>Function that sets the data of save data memory</t>
+  </si>
+  <si>
+    <t>sceSaveDataGetSaveDataMemory2()</t>
+  </si>
+  <si>
+    <t>Function that obtains the data, title name, etc., of save data memory</t>
+  </si>
+  <si>
+    <t>sceSaveDataSyncSaveDataMemory()</t>
+  </si>
+  <si>
+    <t>Function that explicitly saves the save data memory</t>
+  </si>
+  <si>
+    <t>sceSaveDataTerminate()</t>
+  </si>
+  <si>
+    <t>Function that terminates the library</t>
+  </si>
+  <si>
+    <t>Table 1  Functions Used in Basic Processing</t>
+  </si>
+  <si>
+    <t>sceSaveDataCreateTransactionResource()</t>
+  </si>
+  <si>
+    <t>Function to create a transaction resource</t>
+  </si>
+  <si>
+    <t>sceSaveDataMount3()</t>
+  </si>
+  <si>
+    <t>Function that mounts a save data directory</t>
+  </si>
+  <si>
+    <t>sceSaveDataPrepare()</t>
+  </si>
+  <si>
+    <t>Function that starts a save data update</t>
+  </si>
+  <si>
+    <t>sceSaveDataSetParam()</t>
+  </si>
+  <si>
+    <t>Function that sets system file information</t>
+  </si>
+  <si>
+    <t>sceSaveDataGetParam()</t>
+  </si>
+  <si>
+    <t>Function that obtains system file information</t>
+  </si>
+  <si>
+    <t>sceSaveDataSaveIcon()</t>
+  </si>
+  <si>
+    <t>Function that saves an icon</t>
+  </si>
+  <si>
+    <t>sceSaveDataLoadIcon()</t>
+  </si>
+  <si>
+    <t>Function that loads an icon</t>
+  </si>
+  <si>
+    <t>sceSaveDataCommit()</t>
+  </si>
+  <si>
+    <t>Function to commit a save data update</t>
+  </si>
+  <si>
+    <t>sceSaveDataUmount2()</t>
+  </si>
+  <si>
+    <t>Function that unmounts a save data directory</t>
+  </si>
+  <si>
+    <t>sceSaveDataDeleteTransactionResource()</t>
+  </si>
+  <si>
+    <t>Function to delete a transaction resource</t>
+  </si>
+  <si>
+    <t>PS 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sceSaveDataMount2()</t>
+  </si>
+  <si>
+    <t>Table 3  Functions Used in Basic Processing of the Save Data Memory</t>
+  </si>
+  <si>
+    <t>Function that obtains the data, icon, title name, etc., of save data memory</t>
+  </si>
+  <si>
+    <t>Function that saves the save data memory explicitly</t>
+  </si>
+  <si>
+    <t>sceSaveDataUmount()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3543,8 +3743,41 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF0F0F0F"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <color rgb="FF0F0F0F"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3569,8 +3802,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAAAAAA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -3720,12 +3965,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFEEEEEE"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFEEEEEE"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFEEEEEE"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFEEEEEE"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3915,6 +4175,22 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4223,11 +4499,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:E21"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="4"/>
     <col min="2" max="2" width="23.25" style="4" customWidth="1"/>
@@ -4239,7 +4515,7 @@
     <col min="9" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:8">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4250,7 +4526,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -4259,7 +4535,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8">
       <c r="B3" s="56" t="s">
         <v>124</v>
       </c>
@@ -4280,7 +4556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8">
       <c r="B4" s="57"/>
       <c r="C4" s="57"/>
       <c r="D4" s="57"/>
@@ -4289,7 +4565,7 @@
       <c r="G4" s="31"/>
       <c r="H4" s="63"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8">
       <c r="B5" s="39" t="s">
         <v>127</v>
       </c>
@@ -4310,7 +4586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8">
       <c r="B6" s="40"/>
       <c r="C6" s="28"/>
       <c r="D6" s="5"/>
@@ -4321,7 +4597,7 @@
       <c r="G6" s="32"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8">
       <c r="B7" s="40"/>
       <c r="C7" s="28"/>
       <c r="D7" s="5"/>
@@ -4332,7 +4608,7 @@
       <c r="G7" s="32"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8">
       <c r="B8" s="40"/>
       <c r="C8" s="28"/>
       <c r="D8" s="5"/>
@@ -4343,7 +4619,7 @@
       <c r="G8" s="32"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8">
       <c r="B9" s="40"/>
       <c r="C9" s="28"/>
       <c r="D9" s="5" t="s">
@@ -4360,7 +4636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8">
       <c r="B10" s="40"/>
       <c r="C10" s="10" t="s">
         <v>20</v>
@@ -4379,7 +4655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8">
       <c r="B11" s="40"/>
       <c r="C11" s="28"/>
       <c r="D11" s="5" t="s">
@@ -4396,7 +4672,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8">
       <c r="B12" s="40"/>
       <c r="C12" s="28"/>
       <c r="D12" s="5"/>
@@ -4407,7 +4683,7 @@
       <c r="G12" s="32"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8">
       <c r="B13" s="40"/>
       <c r="C13" s="28"/>
       <c r="D13" s="5" t="s">
@@ -4422,7 +4698,7 @@
       <c r="G13" s="32"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8">
       <c r="B14" s="40"/>
       <c r="C14" s="28"/>
       <c r="D14" s="5"/>
@@ -4435,11 +4711,11 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8">
       <c r="B15" s="40"/>
       <c r="C15" s="28"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:8">
       <c r="B16" s="40"/>
       <c r="C16" s="28"/>
       <c r="D16" s="5" t="s">
@@ -4456,7 +4732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:8">
       <c r="B17" s="40"/>
       <c r="C17" s="28"/>
       <c r="D17" s="5" t="s">
@@ -4473,7 +4749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:8">
       <c r="B18" s="40"/>
       <c r="C18" s="29"/>
       <c r="D18" s="5" t="s">
@@ -4490,7 +4766,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:8">
       <c r="B19" s="40"/>
       <c r="C19" s="10" t="s">
         <v>13</v>
@@ -4509,7 +4785,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:8">
       <c r="B20" s="40"/>
       <c r="C20" s="10" t="s">
         <v>17</v>
@@ -4518,24 +4794,24 @@
         <v>18</v>
       </c>
       <c r="E20" s="65" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="F20" s="67" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="G20" s="32"/>
       <c r="H20" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:8">
       <c r="B21" s="40"/>
       <c r="E21" s="66"/>
       <c r="F21" s="4" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
       <c r="B22" s="41"/>
       <c r="C22" s="10" t="s">
         <v>24</v>
@@ -4554,7 +4830,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:8">
       <c r="B23" s="36" t="s">
         <v>28</v>
       </c>
@@ -4575,7 +4851,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:8">
       <c r="B24" s="38"/>
       <c r="C24" s="55"/>
       <c r="D24" s="5" t="s">
@@ -4592,7 +4868,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:8">
       <c r="B25" s="36" t="s">
         <v>35</v>
       </c>
@@ -4600,7 +4876,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:8">
       <c r="B26" s="37"/>
       <c r="C26" s="41"/>
       <c r="D26" s="5" t="s">
@@ -4615,7 +4891,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:8">
       <c r="B27" s="37"/>
       <c r="C27" s="39" t="s">
         <v>42</v>
@@ -4634,7 +4910,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:8">
       <c r="B28" s="37"/>
       <c r="C28" s="40"/>
       <c r="D28" s="5" t="s">
@@ -4651,7 +4927,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:8">
       <c r="B29" s="37"/>
       <c r="C29" s="40"/>
       <c r="D29" s="5" t="s">
@@ -4668,7 +4944,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:8">
       <c r="B30" s="38"/>
       <c r="C30" s="41"/>
       <c r="D30" s="5" t="s">
@@ -4685,7 +4961,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:8">
       <c r="B31" s="12" t="s">
         <v>2</v>
       </c>
@@ -4702,7 +4978,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:8">
       <c r="B32" s="51" t="s">
         <v>59</v>
       </c>
@@ -4723,7 +4999,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:8">
       <c r="B33" s="52"/>
       <c r="C33" s="40"/>
       <c r="D33" s="5" t="s">
@@ -4740,7 +5016,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:8">
       <c r="B34" s="52"/>
       <c r="C34" s="40"/>
       <c r="D34" s="5" t="s">
@@ -4757,7 +5033,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:8">
       <c r="B35" s="52"/>
       <c r="C35" s="40"/>
       <c r="D35" s="5" t="s">
@@ -4774,7 +5050,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:8">
       <c r="B36" s="53"/>
       <c r="C36" s="41"/>
       <c r="D36" s="5" t="s">
@@ -4791,7 +5067,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:8">
       <c r="B37" s="12" t="s">
         <v>78</v>
       </c>
@@ -4812,7 +5088,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:8">
       <c r="B38" s="12" t="s">
         <v>82</v>
       </c>
@@ -4833,7 +5109,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:8">
       <c r="B39" s="51" t="s">
         <v>87</v>
       </c>
@@ -4852,7 +5128,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:8">
       <c r="B40" s="52"/>
       <c r="C40" s="40"/>
       <c r="D40" s="40"/>
@@ -4863,7 +5139,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:8">
       <c r="B41" s="52"/>
       <c r="C41" s="40"/>
       <c r="D41" s="40"/>
@@ -4874,7 +5150,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:8">
       <c r="B42" s="52"/>
       <c r="C42" s="41"/>
       <c r="D42" s="41"/>
@@ -4885,7 +5161,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:8">
       <c r="B43" s="52"/>
       <c r="C43" s="39" t="s">
         <v>94</v>
@@ -4902,7 +5178,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:8">
       <c r="B44" s="52"/>
       <c r="C44" s="40"/>
       <c r="D44" s="40"/>
@@ -4913,7 +5189,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:8">
       <c r="B45" s="52"/>
       <c r="C45" s="40"/>
       <c r="D45" s="40"/>
@@ -4924,7 +5200,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:8">
       <c r="B46" s="53"/>
       <c r="C46" s="41"/>
       <c r="D46" s="41"/>
@@ -4935,7 +5211,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:8">
       <c r="B47" s="45" t="s">
         <v>100</v>
       </c>
@@ -4954,7 +5230,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:8">
       <c r="B48" s="46"/>
       <c r="C48" s="49"/>
       <c r="D48" s="7" t="s">
@@ -4969,7 +5245,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:8">
       <c r="B49" s="46"/>
       <c r="C49" s="49"/>
       <c r="D49" s="7" t="s">
@@ -4984,7 +5260,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:8">
       <c r="B50" s="46"/>
       <c r="C50" s="49"/>
       <c r="D50" s="7" t="s">
@@ -4999,7 +5275,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:8">
       <c r="B51" s="47"/>
       <c r="C51" s="50"/>
       <c r="D51" s="7" t="s">
@@ -5014,7 +5290,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:8">
       <c r="B52" s="36" t="s">
         <v>112</v>
       </c>
@@ -5033,7 +5309,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:8">
       <c r="B53" s="37"/>
       <c r="C53" s="40"/>
       <c r="D53" s="19" t="s">
@@ -5048,7 +5324,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:8">
       <c r="B54" s="38"/>
       <c r="C54" s="41"/>
       <c r="D54" s="19" t="s">
@@ -5063,7 +5339,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:8">
       <c r="B55" s="39" t="s">
         <v>119</v>
       </c>
@@ -5080,7 +5356,7 @@
       <c r="G55" s="23"/>
       <c r="H55" s="24"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:8">
       <c r="B56" s="40"/>
       <c r="C56" s="40"/>
       <c r="D56" s="25" t="s">
@@ -5093,7 +5369,7 @@
       <c r="G56" s="23"/>
       <c r="H56" s="24"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:8">
       <c r="B57" s="40"/>
       <c r="C57" s="40"/>
       <c r="D57" s="25" t="s">
@@ -5106,7 +5382,7 @@
       <c r="G57" s="23"/>
       <c r="H57" s="24"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:8">
       <c r="B58" s="41"/>
       <c r="C58" s="41"/>
       <c r="D58" s="25" t="s">
@@ -5119,7 +5395,7 @@
       <c r="G58" s="23"/>
       <c r="H58" s="24"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:8">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="2"/>
@@ -5128,7 +5404,7 @@
       <c r="G59" s="3"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:8">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="2"/>
@@ -5137,7 +5413,7 @@
       <c r="G60" s="3"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:8">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="2"/>
@@ -5146,7 +5422,7 @@
       <c r="G61" s="3"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:8">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="2"/>
@@ -5155,7 +5431,7 @@
       <c r="G62" s="3"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:8">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="2"/>
@@ -5164,7 +5440,7 @@
       <c r="G63" s="3"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:8">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="2"/>
@@ -5173,7 +5449,7 @@
       <c r="G64" s="3"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:8">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="2"/>
@@ -5182,7 +5458,7 @@
       <c r="G65" s="3"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:8">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="2"/>
@@ -5191,7 +5467,7 @@
       <c r="G66" s="3"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:8">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="2"/>
@@ -5200,7 +5476,7 @@
       <c r="G67" s="3"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:8">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="2"/>
@@ -5209,7 +5485,7 @@
       <c r="G68" s="3"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:8">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="2"/>
@@ -5218,7 +5494,7 @@
       <c r="G69" s="3"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:8">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="2"/>
@@ -5227,7 +5503,7 @@
       <c r="G70" s="3"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:8">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="2"/>
@@ -5236,7 +5512,7 @@
       <c r="G71" s="3"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:8">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="2"/>
@@ -5245,7 +5521,7 @@
       <c r="G72" s="3"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:8">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="2"/>
@@ -5254,7 +5530,7 @@
       <c r="G73" s="3"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:8">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="2"/>
@@ -5263,7 +5539,7 @@
       <c r="G74" s="3"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:8">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="2"/>
@@ -5272,7 +5548,7 @@
       <c r="G75" s="3"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:8">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="2"/>
@@ -5281,7 +5557,7 @@
       <c r="G76" s="3"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:8">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="2"/>
@@ -5290,7 +5566,7 @@
       <c r="G77" s="3"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:8">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="2"/>
@@ -5299,7 +5575,7 @@
       <c r="G78" s="3"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:8">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="2"/>
@@ -5308,7 +5584,7 @@
       <c r="G79" s="3"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:8">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="2"/>
@@ -5317,7 +5593,7 @@
       <c r="G80" s="3"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:8">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="2"/>
@@ -5326,7 +5602,7 @@
       <c r="G81" s="3"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:8">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="2"/>
@@ -5335,7 +5611,7 @@
       <c r="G82" s="3"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:8">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="2"/>
@@ -5344,7 +5620,7 @@
       <c r="G83" s="3"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:8">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="2"/>
@@ -5353,7 +5629,7 @@
       <c r="G84" s="3"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:8">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="2"/>
@@ -5362,7 +5638,7 @@
       <c r="G85" s="3"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:8">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="2"/>
@@ -5371,7 +5647,7 @@
       <c r="G86" s="3"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:8">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="2"/>
@@ -5380,7 +5656,7 @@
       <c r="G87" s="3"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:8">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="2"/>
@@ -5389,7 +5665,7 @@
       <c r="G88" s="3"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:8">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="2"/>
@@ -5398,7 +5674,7 @@
       <c r="G89" s="3"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:8">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="2"/>
@@ -5407,7 +5683,7 @@
       <c r="G90" s="3"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:8">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="2"/>
@@ -5416,7 +5692,7 @@
       <c r="G91" s="3"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:8">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="2"/>
@@ -5425,7 +5701,7 @@
       <c r="G92" s="3"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:8">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="2"/>
@@ -5434,7 +5710,7 @@
       <c r="G93" s="3"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:8">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="2"/>
@@ -5443,7 +5719,7 @@
       <c r="G94" s="3"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:8">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="2"/>
@@ -5452,7 +5728,7 @@
       <c r="G95" s="3"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:8">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="2"/>
@@ -5461,7 +5737,7 @@
       <c r="G96" s="3"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:8">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="2"/>
@@ -5470,7 +5746,7 @@
       <c r="G97" s="3"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:8">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="2"/>
@@ -5479,7 +5755,7 @@
       <c r="G98" s="3"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:8">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="2"/>
@@ -5488,7 +5764,7 @@
       <c r="G99" s="3"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:8">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="2"/>
@@ -5497,7 +5773,7 @@
       <c r="G100" s="3"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:8">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="2"/>
@@ -5506,7 +5782,7 @@
       <c r="G101" s="3"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:8">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="2"/>
@@ -5515,7 +5791,7 @@
       <c r="G102" s="3"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:8">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="2"/>
@@ -5524,7 +5800,7 @@
       <c r="G103" s="3"/>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:8">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="2"/>
@@ -5533,7 +5809,7 @@
       <c r="G104" s="3"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:8">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="2"/>
@@ -5542,7 +5818,7 @@
       <c r="G105" s="3"/>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:8">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="2"/>
@@ -5551,7 +5827,7 @@
       <c r="G106" s="3"/>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:8">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="2"/>
@@ -5560,7 +5836,7 @@
       <c r="G107" s="3"/>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:8">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="2"/>
@@ -5569,7 +5845,7 @@
       <c r="G108" s="3"/>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:8">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="2"/>
@@ -5578,7 +5854,7 @@
       <c r="G109" s="3"/>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:8">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="2"/>
@@ -5587,7 +5863,7 @@
       <c r="G110" s="3"/>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:8">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="2"/>
@@ -5596,7 +5872,7 @@
       <c r="G111" s="3"/>
       <c r="H111" s="1"/>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:8">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="2"/>
@@ -5605,7 +5881,7 @@
       <c r="G112" s="3"/>
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:8">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="2"/>
@@ -5614,7 +5890,7 @@
       <c r="G113" s="3"/>
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:8">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="2"/>
@@ -5623,7 +5899,7 @@
       <c r="G114" s="3"/>
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:8">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="2"/>
@@ -5632,7 +5908,7 @@
       <c r="G115" s="3"/>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:8">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="2"/>
@@ -5641,7 +5917,7 @@
       <c r="G116" s="3"/>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:8">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="2"/>
@@ -5650,7 +5926,7 @@
       <c r="G117" s="3"/>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="118" spans="2:8">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="2"/>
@@ -5659,7 +5935,7 @@
       <c r="G118" s="3"/>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="119" spans="2:8">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="2"/>
@@ -5668,7 +5944,7 @@
       <c r="G119" s="3"/>
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="120" spans="2:8">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="2"/>
@@ -5677,7 +5953,7 @@
       <c r="G120" s="3"/>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="121" spans="2:8">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="2"/>
@@ -5686,7 +5962,7 @@
       <c r="G121" s="3"/>
       <c r="H121" s="1"/>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="122" spans="2:8">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="2"/>
@@ -5695,7 +5971,7 @@
       <c r="G122" s="3"/>
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="123" spans="2:8">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="2"/>
@@ -5704,7 +5980,7 @@
       <c r="G123" s="3"/>
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="124" spans="2:8">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="2"/>
@@ -5713,7 +5989,7 @@
       <c r="G124" s="3"/>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="125" spans="2:8">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="2"/>
@@ -5722,7 +5998,7 @@
       <c r="G125" s="3"/>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="126" spans="2:8">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="2"/>
@@ -5731,7 +6007,7 @@
       <c r="G126" s="3"/>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="127" spans="2:8">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="2"/>
@@ -5740,7 +6016,7 @@
       <c r="G127" s="3"/>
       <c r="H127" s="1"/>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="128" spans="2:8">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="2"/>
@@ -5749,7 +6025,7 @@
       <c r="G128" s="3"/>
       <c r="H128" s="1"/>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="129" spans="2:8">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="2"/>
@@ -5758,7 +6034,7 @@
       <c r="G129" s="3"/>
       <c r="H129" s="1"/>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="130" spans="2:8">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="2"/>
@@ -5767,7 +6043,7 @@
       <c r="G130" s="3"/>
       <c r="H130" s="1"/>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="131" spans="2:8">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="2"/>
@@ -5776,7 +6052,7 @@
       <c r="G131" s="3"/>
       <c r="H131" s="1"/>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="132" spans="2:8">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="2"/>
@@ -5785,7 +6061,7 @@
       <c r="G132" s="3"/>
       <c r="H132" s="1"/>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="133" spans="2:8">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="2"/>
@@ -5794,7 +6070,7 @@
       <c r="G133" s="3"/>
       <c r="H133" s="1"/>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="134" spans="2:8">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="2"/>
@@ -5803,7 +6079,7 @@
       <c r="G134" s="3"/>
       <c r="H134" s="1"/>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="135" spans="2:8">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="2"/>
@@ -5812,7 +6088,7 @@
       <c r="G135" s="3"/>
       <c r="H135" s="1"/>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="136" spans="2:8">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="2"/>
@@ -5821,7 +6097,7 @@
       <c r="G136" s="3"/>
       <c r="H136" s="1"/>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="137" spans="2:8">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="2"/>
@@ -5830,7 +6106,7 @@
       <c r="G137" s="3"/>
       <c r="H137" s="1"/>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="138" spans="2:8">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="2"/>
@@ -5839,7 +6115,7 @@
       <c r="G138" s="3"/>
       <c r="H138" s="1"/>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="139" spans="2:8">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="2"/>
@@ -5848,7 +6124,7 @@
       <c r="G139" s="3"/>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="140" spans="2:8">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="2"/>
@@ -5857,7 +6133,7 @@
       <c r="G140" s="3"/>
       <c r="H140" s="1"/>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="141" spans="2:8">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="2"/>
@@ -5866,7 +6142,7 @@
       <c r="G141" s="3"/>
       <c r="H141" s="1"/>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="142" spans="2:8">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="2"/>
@@ -5875,7 +6151,7 @@
       <c r="G142" s="3"/>
       <c r="H142" s="1"/>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="143" spans="2:8">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="2"/>
@@ -5884,7 +6160,7 @@
       <c r="G143" s="3"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="144" spans="2:8">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="2"/>
@@ -5893,7 +6169,7 @@
       <c r="G144" s="3"/>
       <c r="H144" s="1"/>
     </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="145" spans="2:8">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="2"/>
@@ -5902,7 +6178,7 @@
       <c r="G145" s="3"/>
       <c r="H145" s="1"/>
     </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="146" spans="2:8">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="2"/>
@@ -5911,7 +6187,7 @@
       <c r="G146" s="3"/>
       <c r="H146" s="1"/>
     </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="147" spans="2:8">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="2"/>
@@ -5920,7 +6196,7 @@
       <c r="G147" s="3"/>
       <c r="H147" s="1"/>
     </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="148" spans="2:8">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="2"/>
@@ -5929,7 +6205,7 @@
       <c r="G148" s="3"/>
       <c r="H148" s="1"/>
     </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="149" spans="2:8">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="2"/>
@@ -5938,7 +6214,7 @@
       <c r="G149" s="3"/>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="150" spans="2:8">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="2"/>
@@ -5947,7 +6223,7 @@
       <c r="G150" s="3"/>
       <c r="H150" s="1"/>
     </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="151" spans="2:8">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="2"/>
@@ -5956,7 +6232,7 @@
       <c r="G151" s="3"/>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="152" spans="2:8">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="2"/>
@@ -5965,7 +6241,7 @@
       <c r="G152" s="3"/>
       <c r="H152" s="1"/>
     </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="153" spans="2:8">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="2"/>
@@ -5974,7 +6250,7 @@
       <c r="G153" s="3"/>
       <c r="H153" s="1"/>
     </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="154" spans="2:8">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="2"/>
@@ -5983,7 +6259,7 @@
       <c r="G154" s="3"/>
       <c r="H154" s="1"/>
     </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="155" spans="2:8">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="2"/>
@@ -5992,7 +6268,7 @@
       <c r="G155" s="3"/>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="156" spans="2:8">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="2"/>
@@ -6001,7 +6277,7 @@
       <c r="G156" s="3"/>
       <c r="H156" s="1"/>
     </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="157" spans="2:8">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="2"/>
@@ -6010,7 +6286,7 @@
       <c r="G157" s="3"/>
       <c r="H157" s="1"/>
     </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="158" spans="2:8">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="2"/>
@@ -6019,7 +6295,7 @@
       <c r="G158" s="3"/>
       <c r="H158" s="1"/>
     </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="159" spans="2:8">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="2"/>
@@ -6028,7 +6304,7 @@
       <c r="G159" s="3"/>
       <c r="H159" s="1"/>
     </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="160" spans="2:8">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="2"/>
@@ -6037,7 +6313,7 @@
       <c r="G160" s="3"/>
       <c r="H160" s="1"/>
     </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="161" spans="2:8">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="2"/>
@@ -6046,7 +6322,7 @@
       <c r="G161" s="3"/>
       <c r="H161" s="1"/>
     </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="162" spans="2:8">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="2"/>
@@ -6055,7 +6331,7 @@
       <c r="G162" s="3"/>
       <c r="H162" s="1"/>
     </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="163" spans="2:8">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="2"/>
@@ -6064,7 +6340,7 @@
       <c r="G163" s="3"/>
       <c r="H163" s="1"/>
     </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="164" spans="2:8">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="2"/>
@@ -6073,7 +6349,7 @@
       <c r="G164" s="3"/>
       <c r="H164" s="1"/>
     </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="165" spans="2:8">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="2"/>
@@ -6126,7 +6402,7 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="31.25" customWidth="1"/>
     <col min="2" max="2" width="38.08203125" customWidth="1"/>
@@ -6140,7 +6416,7 @@
     <col min="10" max="10" width="20.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>991</v>
       </c>
@@ -6172,7 +6448,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>1006</v>
       </c>
@@ -6197,7 +6473,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>1006</v>
       </c>
@@ -6222,7 +6498,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>1006</v>
       </c>
@@ -6247,7 +6523,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>1006</v>
       </c>
@@ -6272,7 +6548,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>1006</v>
       </c>
@@ -6297,7 +6573,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>1004</v>
       </c>
@@ -6323,7 +6599,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>1004</v>
       </c>
@@ -6349,7 +6625,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>1004</v>
       </c>
@@ -6375,7 +6651,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>1004</v>
       </c>
@@ -6401,7 +6677,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>1004</v>
       </c>
@@ -6427,7 +6703,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>1004</v>
       </c>
@@ -6453,7 +6729,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>142</v>
       </c>
@@ -6476,7 +6752,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>142</v>
       </c>
@@ -6505,7 +6781,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>142</v>
       </c>
@@ -6531,7 +6807,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>142</v>
       </c>
@@ -6557,7 +6833,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>142</v>
       </c>
@@ -6580,7 +6856,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>142</v>
       </c>
@@ -6603,7 +6879,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>142</v>
       </c>
@@ -6626,7 +6902,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>142</v>
       </c>
@@ -6649,7 +6925,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>142</v>
       </c>
@@ -6672,7 +6948,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>142</v>
       </c>
@@ -6698,7 +6974,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>142</v>
       </c>
@@ -6724,7 +7000,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>142</v>
       </c>
@@ -6750,7 +7026,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>142</v>
       </c>
@@ -6773,7 +7049,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>142</v>
       </c>
@@ -6796,7 +7072,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>142</v>
       </c>
@@ -6819,7 +7095,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>142</v>
       </c>
@@ -6842,7 +7118,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>142</v>
       </c>
@@ -6865,7 +7141,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>142</v>
       </c>
@@ -6888,7 +7164,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>142</v>
       </c>
@@ -6911,7 +7187,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>142</v>
       </c>
@@ -6934,7 +7210,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>142</v>
       </c>
@@ -6957,7 +7233,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>142</v>
       </c>
@@ -6980,7 +7256,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>142</v>
       </c>
@@ -7003,7 +7279,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>142</v>
       </c>
@@ -7026,7 +7302,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>142</v>
       </c>
@@ -7049,7 +7325,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>142</v>
       </c>
@@ -7072,7 +7348,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>142</v>
       </c>
@@ -7095,7 +7371,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>142</v>
       </c>
@@ -7118,7 +7394,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>142</v>
       </c>
@@ -7141,7 +7417,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>142</v>
       </c>
@@ -7164,7 +7440,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>142</v>
       </c>
@@ -7187,7 +7463,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>142</v>
       </c>
@@ -7210,7 +7486,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>142</v>
       </c>
@@ -7236,7 +7512,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>142</v>
       </c>
@@ -7262,7 +7538,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>142</v>
       </c>
@@ -7288,7 +7564,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>142</v>
       </c>
@@ -7314,7 +7590,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>142</v>
       </c>
@@ -7340,7 +7616,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>142</v>
       </c>
@@ -7366,7 +7642,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>142</v>
       </c>
@@ -7392,7 +7668,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>142</v>
       </c>
@@ -7418,7 +7694,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>142</v>
       </c>
@@ -7441,7 +7717,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>142</v>
       </c>
@@ -7467,7 +7743,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>142</v>
       </c>
@@ -7493,7 +7769,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>142</v>
       </c>
@@ -7519,7 +7795,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>142</v>
       </c>
@@ -7545,7 +7821,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>142</v>
       </c>
@@ -7571,7 +7847,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>142</v>
       </c>
@@ -7597,7 +7873,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>142</v>
       </c>
@@ -7623,7 +7899,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>142</v>
       </c>
@@ -7652,7 +7928,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>142</v>
       </c>
@@ -7675,7 +7951,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>142</v>
       </c>
@@ -7698,7 +7974,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>142</v>
       </c>
@@ -7721,7 +7997,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>142</v>
       </c>
@@ -7744,7 +8020,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>142</v>
       </c>
@@ -7767,7 +8043,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>142</v>
       </c>
@@ -7787,7 +8063,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>142</v>
       </c>
@@ -7810,7 +8086,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>142</v>
       </c>
@@ -7833,7 +8109,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>142</v>
       </c>
@@ -7856,7 +8132,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>142</v>
       </c>
@@ -7879,7 +8155,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>142</v>
       </c>
@@ -7896,7 +8172,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>1005</v>
       </c>
@@ -7916,7 +8192,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>1005</v>
       </c>
@@ -7939,7 +8215,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>1090</v>
       </c>
@@ -7965,7 +8241,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>1005</v>
       </c>
@@ -7991,7 +8267,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>1005</v>
       </c>
@@ -8017,7 +8293,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>1090</v>
       </c>
@@ -8040,7 +8316,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>1005</v>
       </c>
@@ -8063,7 +8339,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>1005</v>
       </c>
@@ -8086,7 +8362,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
         <v>1005</v>
       </c>
@@ -8109,7 +8385,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
         <v>1005</v>
       </c>
@@ -8132,7 +8408,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
         <v>1005</v>
       </c>
@@ -8158,7 +8434,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
         <v>1090</v>
       </c>
@@ -8184,7 +8460,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
         <v>1005</v>
       </c>
@@ -8207,7 +8483,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
         <v>1005</v>
       </c>
@@ -8230,7 +8506,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
         <v>1005</v>
       </c>
@@ -8253,7 +8529,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
         <v>1005</v>
       </c>
@@ -8276,7 +8552,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
         <v>1005</v>
       </c>
@@ -8299,7 +8575,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10">
       <c r="A90" t="s">
         <v>318</v>
       </c>
@@ -8319,7 +8595,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10">
       <c r="A91" t="s">
         <v>318</v>
       </c>
@@ -8339,7 +8615,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
         <v>318</v>
       </c>
@@ -8359,7 +8635,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10">
       <c r="A93" t="s">
         <v>994</v>
       </c>
@@ -8382,7 +8658,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10">
       <c r="A94" t="s">
         <v>1001</v>
       </c>
@@ -8402,7 +8678,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10">
       <c r="A95" t="s">
         <v>146</v>
       </c>
@@ -8422,7 +8698,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10">
       <c r="A96" t="s">
         <v>146</v>
       </c>
@@ -8442,7 +8718,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>146</v>
       </c>
@@ -8462,7 +8738,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
         <v>1002</v>
       </c>
@@ -8485,7 +8761,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
         <v>151</v>
       </c>
@@ -8508,7 +8784,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
         <v>151</v>
       </c>
@@ -8531,7 +8807,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
         <v>151</v>
       </c>
@@ -8554,7 +8830,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
         <v>151</v>
       </c>
@@ -8577,7 +8853,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
         <v>151</v>
       </c>
@@ -8600,7 +8876,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
         <v>151</v>
       </c>
@@ -8623,7 +8899,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
         <v>151</v>
       </c>
@@ -8646,7 +8922,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
         <v>151</v>
       </c>
@@ -8669,7 +8945,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
         <v>151</v>
       </c>
@@ -8692,7 +8968,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
         <v>151</v>
       </c>
@@ -8715,7 +8991,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
         <v>151</v>
       </c>
@@ -8738,7 +9014,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
         <v>151</v>
       </c>
@@ -8761,7 +9037,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
         <v>151</v>
       </c>
@@ -8784,7 +9060,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>151</v>
       </c>
@@ -8807,7 +9083,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
         <v>151</v>
       </c>
@@ -8830,7 +9106,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
         <v>151</v>
       </c>
@@ -8853,7 +9129,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
         <v>151</v>
       </c>
@@ -8876,7 +9152,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
         <v>151</v>
       </c>
@@ -8899,7 +9175,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
         <v>151</v>
       </c>
@@ -8922,7 +9198,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
         <v>151</v>
       </c>
@@ -8945,7 +9221,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
         <v>151</v>
       </c>
@@ -8968,7 +9244,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9">
       <c r="A120" t="s">
         <v>151</v>
       </c>
@@ -8991,7 +9267,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
         <v>151</v>
       </c>
@@ -9014,7 +9290,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
         <v>151</v>
       </c>
@@ -9037,7 +9313,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9">
       <c r="A123" t="s">
         <v>151</v>
       </c>
@@ -9060,7 +9336,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
         <v>151</v>
       </c>
@@ -9083,7 +9359,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
         <v>151</v>
       </c>
@@ -9106,7 +9382,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9">
       <c r="A126" t="s">
         <v>151</v>
       </c>
@@ -9129,7 +9405,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
         <v>151</v>
       </c>
@@ -9152,7 +9428,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
         <v>151</v>
       </c>
@@ -9175,7 +9451,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
         <v>151</v>
       </c>
@@ -9198,7 +9474,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
         <v>151</v>
       </c>
@@ -9221,7 +9497,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
         <v>151</v>
       </c>
@@ -9244,7 +9520,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
         <v>151</v>
       </c>
@@ -9267,7 +9543,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
         <v>151</v>
       </c>
@@ -9290,7 +9566,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
         <v>151</v>
       </c>
@@ -9313,7 +9589,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
         <v>151</v>
       </c>
@@ -9336,7 +9612,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
         <v>151</v>
       </c>
@@ -9359,7 +9635,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
         <v>151</v>
       </c>
@@ -9382,7 +9658,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
         <v>151</v>
       </c>
@@ -9405,7 +9681,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
         <v>151</v>
       </c>
@@ -9428,7 +9704,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
         <v>151</v>
       </c>
@@ -9451,7 +9727,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
         <v>151</v>
       </c>
@@ -9474,7 +9750,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
         <v>151</v>
       </c>
@@ -9497,7 +9773,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
         <v>151</v>
       </c>
@@ -9520,7 +9796,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
         <v>151</v>
       </c>
@@ -9543,7 +9819,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
         <v>151</v>
       </c>
@@ -9566,7 +9842,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
         <v>151</v>
       </c>
@@ -9589,7 +9865,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9">
       <c r="A147" t="s">
         <v>151</v>
       </c>
@@ -9612,7 +9888,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9">
       <c r="A148" t="s">
         <v>151</v>
       </c>
@@ -9635,7 +9911,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9">
       <c r="A149" t="s">
         <v>151</v>
       </c>
@@ -9658,7 +9934,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9">
       <c r="A150" t="s">
         <v>151</v>
       </c>
@@ -9681,7 +9957,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9">
       <c r="A151" t="s">
         <v>151</v>
       </c>
@@ -9704,7 +9980,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -9727,7 +10003,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -9750,7 +10026,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9">
       <c r="A154" t="s">
         <v>151</v>
       </c>
@@ -9773,7 +10049,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
         <v>151</v>
       </c>
@@ -9796,7 +10072,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
         <v>151</v>
       </c>
@@ -9819,7 +10095,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9">
       <c r="A157" t="s">
         <v>151</v>
       </c>
@@ -9842,7 +10118,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9">
       <c r="A158" t="s">
         <v>151</v>
       </c>
@@ -9865,7 +10141,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9">
       <c r="A159" t="s">
         <v>151</v>
       </c>
@@ -9888,7 +10164,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9">
       <c r="A160" t="s">
         <v>151</v>
       </c>
@@ -9911,7 +10187,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9">
       <c r="A161" t="s">
         <v>151</v>
       </c>
@@ -9934,7 +10210,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9">
       <c r="A162" t="s">
         <v>151</v>
       </c>
@@ -9957,7 +10233,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9">
       <c r="A163" t="s">
         <v>151</v>
       </c>
@@ -9980,7 +10256,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9">
       <c r="A164" t="s">
         <v>151</v>
       </c>
@@ -10003,7 +10279,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9">
       <c r="A165" t="s">
         <v>151</v>
       </c>
@@ -10026,7 +10302,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9">
       <c r="A166" t="s">
         <v>151</v>
       </c>
@@ -10049,7 +10325,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9">
       <c r="A167" t="s">
         <v>151</v>
       </c>
@@ -10072,7 +10348,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9">
       <c r="A168" t="s">
         <v>151</v>
       </c>
@@ -10095,7 +10371,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9">
       <c r="A169" t="s">
         <v>151</v>
       </c>
@@ -10118,7 +10394,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9">
       <c r="A170" t="s">
         <v>151</v>
       </c>
@@ -10141,7 +10417,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9">
       <c r="A171" t="s">
         <v>151</v>
       </c>
@@ -10164,7 +10440,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9">
       <c r="A172" t="s">
         <v>151</v>
       </c>
@@ -10187,7 +10463,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9">
       <c r="A173" t="s">
         <v>151</v>
       </c>
@@ -10210,7 +10486,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9">
       <c r="A174" t="s">
         <v>151</v>
       </c>
@@ -10233,7 +10509,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9">
       <c r="A175" t="s">
         <v>151</v>
       </c>
@@ -10256,7 +10532,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9">
       <c r="A176" t="s">
         <v>151</v>
       </c>
@@ -10279,7 +10555,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9">
       <c r="A177" t="s">
         <v>151</v>
       </c>
@@ -10302,7 +10578,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9">
       <c r="A178" t="s">
         <v>151</v>
       </c>
@@ -10325,7 +10601,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9">
       <c r="A179" t="s">
         <v>151</v>
       </c>
@@ -10348,7 +10624,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9">
       <c r="A180" t="s">
         <v>151</v>
       </c>
@@ -10371,7 +10647,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9">
       <c r="A181" t="s">
         <v>151</v>
       </c>
@@ -10394,7 +10670,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9">
       <c r="A182" t="s">
         <v>151</v>
       </c>
@@ -10417,7 +10693,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9">
       <c r="A183" t="s">
         <v>151</v>
       </c>
@@ -10440,7 +10716,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9">
       <c r="A184" t="s">
         <v>151</v>
       </c>
@@ -10463,7 +10739,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9">
       <c r="A185" t="s">
         <v>151</v>
       </c>
@@ -10486,7 +10762,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9">
       <c r="A186" t="s">
         <v>151</v>
       </c>
@@ -10509,7 +10785,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9">
       <c r="A187" t="s">
         <v>151</v>
       </c>
@@ -10532,7 +10808,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9">
       <c r="A188" t="s">
         <v>151</v>
       </c>
@@ -10555,7 +10831,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9">
       <c r="A189" t="s">
         <v>151</v>
       </c>
@@ -10578,7 +10854,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9">
       <c r="A190" t="s">
         <v>151</v>
       </c>
@@ -10601,7 +10877,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9">
       <c r="A191" t="s">
         <v>151</v>
       </c>
@@ -10624,7 +10900,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9">
       <c r="A192" t="s">
         <v>151</v>
       </c>
@@ -10647,7 +10923,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9">
       <c r="A193" t="s">
         <v>178</v>
       </c>
@@ -10664,7 +10940,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9">
       <c r="A194" t="s">
         <v>178</v>
       </c>
@@ -10684,7 +10960,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9">
       <c r="A195" t="s">
         <v>178</v>
       </c>
@@ -10704,7 +10980,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9">
       <c r="A196" t="s">
         <v>178</v>
       </c>
@@ -10724,7 +11000,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9">
       <c r="A197" t="s">
         <v>178</v>
       </c>
@@ -10744,7 +11020,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9">
       <c r="A198" t="s">
         <v>178</v>
       </c>
@@ -10767,7 +11043,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9">
       <c r="A199" t="s">
         <v>178</v>
       </c>
@@ -10790,7 +11066,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9">
       <c r="A200" t="s">
         <v>178</v>
       </c>
@@ -10813,7 +11089,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9">
       <c r="A201" t="s">
         <v>178</v>
       </c>
@@ -10836,7 +11112,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9">
       <c r="A202" t="s">
         <v>178</v>
       </c>
@@ -10859,7 +11135,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9">
       <c r="A203" t="s">
         <v>178</v>
       </c>
@@ -10882,7 +11158,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9">
       <c r="A204" t="s">
         <v>178</v>
       </c>
@@ -10905,7 +11181,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9">
       <c r="A205" t="s">
         <v>178</v>
       </c>
@@ -10928,7 +11204,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9">
       <c r="A206" t="s">
         <v>178</v>
       </c>
@@ -10951,7 +11227,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9">
       <c r="A207" t="s">
         <v>178</v>
       </c>
@@ -10974,7 +11250,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9">
       <c r="A208" t="s">
         <v>178</v>
       </c>
@@ -10997,7 +11273,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9">
       <c r="A209" t="s">
         <v>178</v>
       </c>
@@ -11020,7 +11296,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9">
       <c r="A210" t="s">
         <v>178</v>
       </c>
@@ -11043,7 +11319,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9">
       <c r="A211" t="s">
         <v>178</v>
       </c>
@@ -11066,7 +11342,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9">
       <c r="A212" t="s">
         <v>178</v>
       </c>
@@ -11089,7 +11365,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9">
       <c r="A213" t="s">
         <v>178</v>
       </c>
@@ -11112,7 +11388,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9">
       <c r="A214" t="s">
         <v>178</v>
       </c>
@@ -11135,7 +11411,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9">
       <c r="A215" t="s">
         <v>178</v>
       </c>
@@ -11158,7 +11434,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9">
       <c r="A216" t="s">
         <v>178</v>
       </c>
@@ -11181,7 +11457,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9">
       <c r="A217" t="s">
         <v>178</v>
       </c>
@@ -11204,7 +11480,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9">
       <c r="A218" t="s">
         <v>178</v>
       </c>
@@ -11227,7 +11503,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9">
       <c r="A219" t="s">
         <v>178</v>
       </c>
@@ -11250,7 +11526,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9">
       <c r="A220" t="s">
         <v>178</v>
       </c>
@@ -11273,7 +11549,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9">
       <c r="A221" t="s">
         <v>178</v>
       </c>
@@ -11296,7 +11572,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9">
       <c r="A222" t="s">
         <v>178</v>
       </c>
@@ -11316,7 +11592,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9">
       <c r="A223" t="s">
         <v>178</v>
       </c>
@@ -11339,7 +11615,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9">
       <c r="A224" t="s">
         <v>178</v>
       </c>
@@ -11359,7 +11635,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9">
       <c r="A225" t="s">
         <v>178</v>
       </c>
@@ -11379,7 +11655,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9">
       <c r="A226" t="s">
         <v>178</v>
       </c>
@@ -11402,7 +11678,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9">
       <c r="A227" t="s">
         <v>178</v>
       </c>
@@ -11425,7 +11701,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9">
       <c r="A228" t="s">
         <v>178</v>
       </c>
@@ -11445,7 +11721,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9">
       <c r="A229" t="s">
         <v>178</v>
       </c>
@@ -11468,7 +11744,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9">
       <c r="A230" t="s">
         <v>178</v>
       </c>
@@ -11488,7 +11764,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9">
       <c r="A231" t="s">
         <v>178</v>
       </c>
@@ -11508,7 +11784,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9">
       <c r="A232" t="s">
         <v>178</v>
       </c>
@@ -11528,7 +11804,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9">
       <c r="A233" t="s">
         <v>178</v>
       </c>
@@ -11548,7 +11824,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9">
       <c r="A234" t="s">
         <v>178</v>
       </c>
@@ -11568,7 +11844,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9">
       <c r="A235" t="s">
         <v>178</v>
       </c>
@@ -11585,7 +11861,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9">
       <c r="A236" t="s">
         <v>178</v>
       </c>
@@ -11605,7 +11881,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9">
       <c r="A237" t="s">
         <v>178</v>
       </c>
@@ -11625,7 +11901,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9">
       <c r="A238" t="s">
         <v>178</v>
       </c>
@@ -11645,7 +11921,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9">
       <c r="A239" t="s">
         <v>178</v>
       </c>
@@ -11665,7 +11941,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9">
       <c r="A240" t="s">
         <v>178</v>
       </c>
@@ -11685,7 +11961,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9">
       <c r="A241" t="s">
         <v>178</v>
       </c>
@@ -11705,7 +11981,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9">
       <c r="A242" t="s">
         <v>178</v>
       </c>
@@ -11725,7 +12001,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9">
       <c r="A243" t="s">
         <v>178</v>
       </c>
@@ -11745,7 +12021,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9">
       <c r="A244" t="s">
         <v>178</v>
       </c>
@@ -11765,7 +12041,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9">
       <c r="A245" t="s">
         <v>178</v>
       </c>
@@ -11785,7 +12061,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9">
       <c r="A246" t="s">
         <v>178</v>
       </c>
@@ -11805,7 +12081,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9">
       <c r="A247" t="s">
         <v>178</v>
       </c>
@@ -11825,7 +12101,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9">
       <c r="A248" t="s">
         <v>178</v>
       </c>
@@ -11845,7 +12121,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9">
       <c r="A249" t="s">
         <v>178</v>
       </c>
@@ -11865,7 +12141,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9">
       <c r="A250" t="s">
         <v>178</v>
       </c>
@@ -11885,7 +12161,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9">
       <c r="A251" t="s">
         <v>178</v>
       </c>
@@ -11905,7 +12181,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9">
       <c r="A252" t="s">
         <v>178</v>
       </c>
@@ -11925,7 +12201,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9">
       <c r="A253" t="s">
         <v>178</v>
       </c>
@@ -11945,7 +12221,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9">
       <c r="A254" t="s">
         <v>178</v>
       </c>
@@ -11965,7 +12241,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9">
       <c r="A255" t="s">
         <v>178</v>
       </c>
@@ -11985,7 +12261,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9">
       <c r="A256" t="s">
         <v>178</v>
       </c>
@@ -12005,7 +12281,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9">
       <c r="A257" t="s">
         <v>178</v>
       </c>
@@ -12025,7 +12301,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9">
       <c r="A258" t="s">
         <v>178</v>
       </c>
@@ -12045,7 +12321,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9">
       <c r="A259" t="s">
         <v>178</v>
       </c>
@@ -12065,7 +12341,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9">
       <c r="A260" t="s">
         <v>178</v>
       </c>
@@ -12085,7 +12361,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9">
       <c r="A261" t="s">
         <v>178</v>
       </c>
@@ -12105,7 +12381,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9">
       <c r="A262" t="s">
         <v>178</v>
       </c>
@@ -12125,7 +12401,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9">
       <c r="A263" t="s">
         <v>178</v>
       </c>
@@ -12145,7 +12421,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9">
       <c r="A264" t="s">
         <v>178</v>
       </c>
@@ -12165,7 +12441,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9">
       <c r="A265" t="s">
         <v>178</v>
       </c>
@@ -12185,7 +12461,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9">
       <c r="A266" t="s">
         <v>178</v>
       </c>
@@ -12205,7 +12481,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9">
       <c r="A267" t="s">
         <v>178</v>
       </c>
@@ -12225,7 +12501,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9">
       <c r="A268" t="s">
         <v>178</v>
       </c>
@@ -12245,7 +12521,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9">
       <c r="A269" t="s">
         <v>178</v>
       </c>
@@ -12265,7 +12541,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9">
       <c r="A270" t="s">
         <v>178</v>
       </c>
@@ -12285,7 +12561,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9">
       <c r="A271" t="s">
         <v>178</v>
       </c>
@@ -12305,7 +12581,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9">
       <c r="A272" t="s">
         <v>178</v>
       </c>
@@ -12325,7 +12601,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9">
       <c r="A273" t="s">
         <v>178</v>
       </c>
@@ -12345,7 +12621,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9">
       <c r="A274" t="s">
         <v>178</v>
       </c>
@@ -12365,7 +12641,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9">
       <c r="A275" t="s">
         <v>178</v>
       </c>
@@ -12385,7 +12661,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9">
       <c r="A276" t="s">
         <v>178</v>
       </c>
@@ -12405,7 +12681,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9">
       <c r="A277" t="s">
         <v>178</v>
       </c>
@@ -12425,7 +12701,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9">
       <c r="A278" t="s">
         <v>178</v>
       </c>
@@ -12445,7 +12721,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9">
       <c r="A279" t="s">
         <v>178</v>
       </c>
@@ -12465,7 +12741,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9">
       <c r="A280" t="s">
         <v>180</v>
       </c>
@@ -12485,7 +12761,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9">
       <c r="A281" t="s">
         <v>180</v>
       </c>
@@ -12505,7 +12781,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9">
       <c r="A282" t="s">
         <v>180</v>
       </c>
@@ -12525,7 +12801,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9">
       <c r="A283" t="s">
         <v>180</v>
       </c>
@@ -12545,7 +12821,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9">
       <c r="A284" t="s">
         <v>180</v>
       </c>
@@ -12562,7 +12838,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9">
       <c r="A285" t="s">
         <v>180</v>
       </c>
@@ -12579,7 +12855,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9">
       <c r="A286" t="s">
         <v>180</v>
       </c>
@@ -12596,7 +12872,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9">
       <c r="A287" t="s">
         <v>180</v>
       </c>
@@ -12613,7 +12889,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9">
       <c r="A288" t="s">
         <v>180</v>
       </c>
@@ -12630,7 +12906,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9">
       <c r="A289" t="s">
         <v>180</v>
       </c>
@@ -12647,7 +12923,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9">
       <c r="A290" t="s">
         <v>180</v>
       </c>
@@ -12664,7 +12940,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9">
       <c r="A291" t="s">
         <v>180</v>
       </c>
@@ -12681,7 +12957,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9">
       <c r="A292" t="s">
         <v>180</v>
       </c>
@@ -12698,7 +12974,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9">
       <c r="A293" t="s">
         <v>180</v>
       </c>
@@ -12715,7 +12991,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9">
       <c r="A294" t="s">
         <v>180</v>
       </c>
@@ -12732,7 +13008,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9">
       <c r="A295" t="s">
         <v>180</v>
       </c>
@@ -12749,7 +13025,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9">
       <c r="A296" t="s">
         <v>180</v>
       </c>
@@ -12766,7 +13042,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9">
       <c r="A297" t="s">
         <v>180</v>
       </c>
@@ -12783,7 +13059,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9">
       <c r="A298" t="s">
         <v>180</v>
       </c>
@@ -12800,7 +13076,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9">
       <c r="A299" t="s">
         <v>180</v>
       </c>
@@ -12817,7 +13093,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9">
       <c r="A300" t="s">
         <v>180</v>
       </c>
@@ -12834,7 +13110,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9">
       <c r="A301" t="s">
         <v>180</v>
       </c>
@@ -12851,7 +13127,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9">
       <c r="A302" t="s">
         <v>180</v>
       </c>
@@ -12868,7 +13144,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9">
       <c r="A303" t="s">
         <v>180</v>
       </c>
@@ -12885,7 +13161,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9">
       <c r="A304" t="s">
         <v>180</v>
       </c>
@@ -12902,7 +13178,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9">
       <c r="A305" t="s">
         <v>180</v>
       </c>
@@ -12919,7 +13195,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9">
       <c r="A306" t="s">
         <v>180</v>
       </c>
@@ -12936,7 +13212,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9">
       <c r="A307" t="s">
         <v>180</v>
       </c>
@@ -12953,7 +13229,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9">
       <c r="A308" t="s">
         <v>180</v>
       </c>
@@ -12970,7 +13246,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9">
       <c r="A309" t="s">
         <v>180</v>
       </c>
@@ -12987,7 +13263,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9">
       <c r="A310" t="s">
         <v>180</v>
       </c>
@@ -13004,7 +13280,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9">
       <c r="A311" t="s">
         <v>180</v>
       </c>
@@ -13021,7 +13297,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9">
       <c r="A312" t="s">
         <v>180</v>
       </c>
@@ -13038,7 +13314,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9">
       <c r="A313" t="s">
         <v>180</v>
       </c>
@@ -13055,7 +13331,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9">
       <c r="A314" t="s">
         <v>180</v>
       </c>
@@ -13072,7 +13348,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9">
       <c r="A315" t="s">
         <v>180</v>
       </c>
@@ -13089,7 +13365,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9">
       <c r="A316" t="s">
         <v>180</v>
       </c>
@@ -13106,7 +13382,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9">
       <c r="A317" t="s">
         <v>180</v>
       </c>
@@ -13123,7 +13399,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9">
       <c r="A318" t="s">
         <v>180</v>
       </c>
@@ -13140,7 +13416,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9">
       <c r="A319" t="s">
         <v>180</v>
       </c>
@@ -13157,7 +13433,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9">
       <c r="A320" t="s">
         <v>180</v>
       </c>
@@ -13174,7 +13450,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9">
       <c r="A321" t="s">
         <v>180</v>
       </c>
@@ -13191,7 +13467,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9">
       <c r="A322" t="s">
         <v>180</v>
       </c>
@@ -13208,7 +13484,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9">
       <c r="A323" t="s">
         <v>180</v>
       </c>
@@ -13225,7 +13501,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9">
       <c r="A324" t="s">
         <v>180</v>
       </c>
@@ -13242,7 +13518,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9">
       <c r="A325" t="s">
         <v>180</v>
       </c>
@@ -13259,7 +13535,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9">
       <c r="A326" t="s">
         <v>180</v>
       </c>
@@ -13276,7 +13552,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9">
       <c r="A327" t="s">
         <v>180</v>
       </c>
@@ -13293,7 +13569,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9">
       <c r="A328" t="s">
         <v>180</v>
       </c>
@@ -13310,7 +13586,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9">
       <c r="A329" t="s">
         <v>180</v>
       </c>
@@ -13327,7 +13603,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9">
       <c r="A330" t="s">
         <v>180</v>
       </c>
@@ -13344,7 +13620,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9">
       <c r="A331" t="s">
         <v>180</v>
       </c>
@@ -13361,7 +13637,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9">
       <c r="A332" t="s">
         <v>180</v>
       </c>
@@ -13378,7 +13654,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9">
       <c r="A333" t="s">
         <v>180</v>
       </c>
@@ -13395,7 +13671,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9">
       <c r="A334" t="s">
         <v>180</v>
       </c>
@@ -13412,7 +13688,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9">
       <c r="A335" t="s">
         <v>180</v>
       </c>
@@ -13429,7 +13705,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9">
       <c r="A336" t="s">
         <v>180</v>
       </c>
@@ -13446,7 +13722,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9">
       <c r="A337" t="s">
         <v>180</v>
       </c>
@@ -13463,7 +13739,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9">
       <c r="A338" t="s">
         <v>180</v>
       </c>
@@ -13480,7 +13756,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9">
       <c r="A339" t="s">
         <v>180</v>
       </c>
@@ -13497,7 +13773,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9">
       <c r="A340" t="s">
         <v>180</v>
       </c>
@@ -13514,7 +13790,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9">
       <c r="A341" t="s">
         <v>180</v>
       </c>
@@ -13531,7 +13807,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9">
       <c r="A342" t="s">
         <v>180</v>
       </c>
@@ -13548,7 +13824,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9">
       <c r="A343" t="s">
         <v>180</v>
       </c>
@@ -13565,7 +13841,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:9">
       <c r="A344" t="s">
         <v>180</v>
       </c>
@@ -13582,7 +13858,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9">
       <c r="A345" t="s">
         <v>180</v>
       </c>
@@ -13599,7 +13875,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:9">
       <c r="A346" t="s">
         <v>180</v>
       </c>
@@ -13616,7 +13892,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9">
       <c r="A347" t="s">
         <v>180</v>
       </c>
@@ -13633,7 +13909,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9">
       <c r="A348" t="s">
         <v>180</v>
       </c>
@@ -13650,7 +13926,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:9">
       <c r="A349" t="s">
         <v>180</v>
       </c>
@@ -13667,7 +13943,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9">
       <c r="A350" t="s">
         <v>180</v>
       </c>
@@ -13684,7 +13960,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9">
       <c r="A351" t="s">
         <v>180</v>
       </c>
@@ -13701,7 +13977,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:9">
       <c r="A352" t="s">
         <v>180</v>
       </c>
@@ -13718,7 +13994,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:9">
       <c r="A353" t="s">
         <v>180</v>
       </c>
@@ -13735,7 +14011,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:9">
       <c r="A354" t="s">
         <v>180</v>
       </c>
@@ -13752,7 +14028,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:9">
       <c r="A355" t="s">
         <v>180</v>
       </c>
@@ -13769,7 +14045,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:9">
       <c r="A356" t="s">
         <v>180</v>
       </c>
@@ -13786,7 +14062,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:9">
       <c r="A357" t="s">
         <v>180</v>
       </c>
@@ -13803,7 +14079,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:9">
       <c r="A358" t="s">
         <v>180</v>
       </c>
@@ -13820,7 +14096,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:9">
       <c r="A359" t="s">
         <v>180</v>
       </c>
@@ -13837,7 +14113,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:9">
       <c r="A360" t="s">
         <v>180</v>
       </c>
@@ -13854,7 +14130,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:9">
       <c r="A361" t="s">
         <v>180</v>
       </c>
@@ -13871,7 +14147,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:9">
       <c r="A362" t="s">
         <v>180</v>
       </c>
@@ -13888,7 +14164,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:9">
       <c r="A363" t="s">
         <v>180</v>
       </c>
@@ -13905,7 +14181,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:9">
       <c r="A364" t="s">
         <v>180</v>
       </c>
@@ -13922,7 +14198,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:9">
       <c r="A365" t="s">
         <v>180</v>
       </c>
@@ -13939,7 +14215,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:9">
       <c r="A366" t="s">
         <v>180</v>
       </c>
@@ -13956,7 +14232,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:9">
       <c r="A367" t="s">
         <v>180</v>
       </c>
@@ -13973,7 +14249,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:9">
       <c r="A368" t="s">
         <v>180</v>
       </c>
@@ -13990,7 +14266,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:9">
       <c r="A369" t="s">
         <v>180</v>
       </c>
@@ -14007,7 +14283,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:9">
       <c r="A370" t="s">
         <v>180</v>
       </c>
@@ -14024,7 +14300,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:9">
       <c r="A371" t="s">
         <v>180</v>
       </c>
@@ -14041,7 +14317,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:9">
       <c r="A372" t="s">
         <v>180</v>
       </c>
@@ -14058,7 +14334,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:9">
       <c r="A373" t="s">
         <v>180</v>
       </c>
@@ -14075,7 +14351,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:9">
       <c r="A374" t="s">
         <v>180</v>
       </c>
@@ -14092,7 +14368,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:9">
       <c r="A375" t="s">
         <v>180</v>
       </c>
@@ -14109,7 +14385,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:9">
       <c r="A376" t="s">
         <v>180</v>
       </c>
@@ -14126,7 +14402,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:9">
       <c r="A377" t="s">
         <v>180</v>
       </c>
@@ -14143,7 +14419,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:9">
       <c r="A378" t="s">
         <v>180</v>
       </c>
@@ -14160,7 +14436,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:9">
       <c r="A379" t="s">
         <v>180</v>
       </c>
@@ -14177,7 +14453,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:9">
       <c r="A380" t="s">
         <v>180</v>
       </c>
@@ -14194,7 +14470,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:9">
       <c r="A381" t="s">
         <v>180</v>
       </c>
@@ -14211,7 +14487,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:9">
       <c r="A382" t="s">
         <v>180</v>
       </c>
@@ -14228,7 +14504,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:9">
       <c r="A383" t="s">
         <v>180</v>
       </c>
@@ -14245,7 +14521,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:9">
       <c r="A384" t="s">
         <v>180</v>
       </c>
@@ -14262,7 +14538,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:9">
       <c r="A385" t="s">
         <v>180</v>
       </c>
@@ -14279,7 +14555,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:9">
       <c r="A386" t="s">
         <v>180</v>
       </c>
@@ -14296,7 +14572,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:9">
       <c r="A387" t="s">
         <v>180</v>
       </c>
@@ -14313,7 +14589,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:9">
       <c r="A388" t="s">
         <v>180</v>
       </c>
@@ -14330,7 +14606,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:9">
       <c r="A389" t="s">
         <v>180</v>
       </c>
@@ -14347,7 +14623,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:9">
       <c r="A390" t="s">
         <v>180</v>
       </c>
@@ -14364,7 +14640,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:9">
       <c r="A391" t="s">
         <v>180</v>
       </c>
@@ -14381,7 +14657,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:9">
       <c r="A392" t="s">
         <v>180</v>
       </c>
@@ -14398,7 +14674,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:9">
       <c r="A393" t="s">
         <v>180</v>
       </c>
@@ -14415,7 +14691,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:9">
       <c r="A394" t="s">
         <v>180</v>
       </c>
@@ -14432,7 +14708,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:9">
       <c r="A395" t="s">
         <v>180</v>
       </c>
@@ -14449,7 +14725,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:9">
       <c r="A396" t="s">
         <v>180</v>
       </c>
@@ -14466,7 +14742,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:9">
       <c r="A397" t="s">
         <v>180</v>
       </c>
@@ -14483,7 +14759,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:9">
       <c r="A398" t="s">
         <v>581</v>
       </c>
@@ -14506,7 +14782,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:9">
       <c r="A399" t="s">
         <v>581</v>
       </c>
@@ -14529,7 +14805,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:9">
       <c r="A400" t="s">
         <v>581</v>
       </c>
@@ -14552,7 +14828,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:9">
       <c r="A401" t="s">
         <v>581</v>
       </c>
@@ -14575,7 +14851,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:9">
       <c r="A402" t="s">
         <v>187</v>
       </c>
@@ -14595,7 +14871,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:9">
       <c r="A403" t="s">
         <v>187</v>
       </c>
@@ -14615,7 +14891,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:9">
       <c r="A404" t="s">
         <v>187</v>
       </c>
@@ -14635,7 +14911,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:9">
       <c r="A405" t="s">
         <v>187</v>
       </c>
@@ -14655,7 +14931,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:9">
       <c r="A406" t="s">
         <v>187</v>
       </c>
@@ -14675,7 +14951,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:9">
       <c r="A407" t="s">
         <v>187</v>
       </c>
@@ -14695,7 +14971,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:9">
       <c r="A408" t="s">
         <v>187</v>
       </c>
@@ -14715,7 +14991,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:9">
       <c r="A409" t="s">
         <v>187</v>
       </c>
@@ -14735,7 +15011,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:9">
       <c r="A410" t="s">
         <v>187</v>
       </c>
@@ -14755,7 +15031,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:9">
       <c r="A411" t="s">
         <v>187</v>
       </c>
@@ -14775,7 +15051,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:9">
       <c r="A412" t="s">
         <v>187</v>
       </c>
@@ -14795,7 +15071,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:9">
       <c r="A413" t="s">
         <v>187</v>
       </c>
@@ -14815,7 +15091,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:9">
       <c r="A414" t="s">
         <v>187</v>
       </c>
@@ -14835,7 +15111,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:9">
       <c r="A415" t="s">
         <v>187</v>
       </c>
@@ -14855,7 +15131,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:9">
       <c r="A416" t="s">
         <v>187</v>
       </c>
@@ -14875,7 +15151,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:9">
       <c r="A417" t="s">
         <v>187</v>
       </c>
@@ -14895,7 +15171,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:9">
       <c r="A418" t="s">
         <v>187</v>
       </c>
@@ -14915,7 +15191,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:9">
       <c r="A419" t="s">
         <v>187</v>
       </c>
@@ -14935,7 +15211,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:9">
       <c r="A420" t="s">
         <v>187</v>
       </c>
@@ -14955,7 +15231,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:9">
       <c r="A421" t="s">
         <v>187</v>
       </c>
@@ -14975,7 +15251,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:9">
       <c r="A422" t="s">
         <v>187</v>
       </c>
@@ -14995,7 +15271,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:9">
       <c r="A423" t="s">
         <v>187</v>
       </c>
@@ -15015,7 +15291,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:9">
       <c r="A424" t="s">
         <v>187</v>
       </c>
@@ -15035,7 +15311,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:9">
       <c r="A425" t="s">
         <v>187</v>
       </c>
@@ -15055,7 +15331,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:9">
       <c r="A426" t="s">
         <v>187</v>
       </c>
@@ -15075,7 +15351,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:9">
       <c r="A427" t="s">
         <v>187</v>
       </c>
@@ -15095,7 +15371,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:9">
       <c r="A428" t="s">
         <v>187</v>
       </c>
@@ -15115,7 +15391,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:9">
       <c r="A429" t="s">
         <v>187</v>
       </c>
@@ -15135,7 +15411,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:9">
       <c r="A430" t="s">
         <v>187</v>
       </c>
@@ -15155,7 +15431,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:9">
       <c r="A431" t="s">
         <v>187</v>
       </c>
@@ -15175,7 +15451,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:9">
       <c r="A432" t="s">
         <v>187</v>
       </c>
@@ -15195,7 +15471,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:9">
       <c r="A433" t="s">
         <v>187</v>
       </c>
@@ -15215,7 +15491,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:9">
       <c r="A434" t="s">
         <v>187</v>
       </c>
@@ -15235,7 +15511,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:9">
       <c r="A435" t="s">
         <v>187</v>
       </c>
@@ -15255,7 +15531,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:9">
       <c r="A436" t="s">
         <v>187</v>
       </c>
@@ -15275,7 +15551,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:9">
       <c r="A437" t="s">
         <v>187</v>
       </c>
@@ -15295,7 +15571,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:9">
       <c r="A438" t="s">
         <v>187</v>
       </c>
@@ -15315,7 +15591,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:9">
       <c r="A439" t="s">
         <v>187</v>
       </c>
@@ -15335,7 +15611,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:9">
       <c r="A440" t="s">
         <v>187</v>
       </c>
@@ -15355,7 +15631,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:9">
       <c r="A441" t="s">
         <v>187</v>
       </c>
@@ -15375,7 +15651,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:9">
       <c r="A442" t="s">
         <v>187</v>
       </c>
@@ -15395,7 +15671,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:9">
       <c r="A443" t="s">
         <v>187</v>
       </c>
@@ -15415,7 +15691,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:9">
       <c r="A444" t="s">
         <v>1065</v>
       </c>
@@ -15436,7 +15712,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:9">
       <c r="A445" t="s">
         <v>1065</v>
       </c>
@@ -15457,7 +15733,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:9">
       <c r="A446" t="s">
         <v>1057</v>
       </c>
@@ -15478,7 +15754,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:9">
       <c r="A447" t="s">
         <v>1057</v>
       </c>
@@ -15499,7 +15775,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:9">
       <c r="A448" t="s">
         <v>1057</v>
       </c>
@@ -15520,7 +15796,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:9">
       <c r="A449" t="s">
         <v>1057</v>
       </c>
@@ -15541,7 +15817,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:9">
       <c r="A450" t="s">
         <v>1057</v>
       </c>
@@ -15562,7 +15838,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:9">
       <c r="A451" t="s">
         <v>1057</v>
       </c>
@@ -15583,7 +15859,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:9">
       <c r="A452" t="s">
         <v>1057</v>
       </c>
@@ -15604,7 +15880,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:9">
       <c r="A453" t="s">
         <v>1057</v>
       </c>
@@ -15625,7 +15901,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:9">
       <c r="A454" t="s">
         <v>1058</v>
       </c>
@@ -15648,7 +15924,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:9">
       <c r="A455" t="s">
         <v>1058</v>
       </c>
@@ -15671,7 +15947,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:9">
       <c r="A456" t="s">
         <v>1058</v>
       </c>
@@ -15694,7 +15970,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:9">
       <c r="A457" t="s">
         <v>1058</v>
       </c>
@@ -15717,7 +15993,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:9">
       <c r="A458" t="s">
         <v>1058</v>
       </c>
@@ -15740,7 +16016,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:9">
       <c r="A459" t="s">
         <v>1058</v>
       </c>
@@ -15763,7 +16039,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:9">
       <c r="A460" t="s">
         <v>607</v>
       </c>
@@ -15783,7 +16059,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:9">
       <c r="A461" t="s">
         <v>607</v>
       </c>
@@ -15803,7 +16079,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:9">
       <c r="A462" t="s">
         <v>607</v>
       </c>
@@ -15823,7 +16099,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:9">
       <c r="A463" t="s">
         <v>607</v>
       </c>
@@ -15843,7 +16119,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:9">
       <c r="A464" t="s">
         <v>607</v>
       </c>
@@ -15863,7 +16139,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:9">
       <c r="A465" t="s">
         <v>607</v>
       </c>
@@ -15883,7 +16159,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:9">
       <c r="A466" t="s">
         <v>607</v>
       </c>
@@ -15903,7 +16179,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:9">
       <c r="A467" t="s">
         <v>607</v>
       </c>
@@ -15923,7 +16199,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:9">
       <c r="A468" t="s">
         <v>607</v>
       </c>
@@ -15943,7 +16219,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:9">
       <c r="A469" t="s">
         <v>607</v>
       </c>
@@ -15963,7 +16239,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:9">
       <c r="A470" t="s">
         <v>607</v>
       </c>
@@ -15983,7 +16259,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:9">
       <c r="A471" t="s">
         <v>607</v>
       </c>
@@ -16003,7 +16279,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:9">
       <c r="A472" t="s">
         <v>607</v>
       </c>
@@ -16023,7 +16299,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:9">
       <c r="A473" t="s">
         <v>607</v>
       </c>
@@ -16043,7 +16319,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:9">
       <c r="A474" t="s">
         <v>607</v>
       </c>
@@ -16063,7 +16339,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:9">
       <c r="A475" t="s">
         <v>607</v>
       </c>
@@ -16083,7 +16359,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:9">
       <c r="A476" t="s">
         <v>607</v>
       </c>
@@ -16103,7 +16379,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:9">
       <c r="A477" t="s">
         <v>607</v>
       </c>
@@ -16123,7 +16399,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:9">
       <c r="A478" t="s">
         <v>607</v>
       </c>
@@ -16143,7 +16419,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:9">
       <c r="A479" t="s">
         <v>607</v>
       </c>
@@ -16163,7 +16439,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:9">
       <c r="A480" t="s">
         <v>607</v>
       </c>
@@ -16183,7 +16459,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:9">
       <c r="A481" t="s">
         <v>607</v>
       </c>
@@ -16203,7 +16479,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:9">
       <c r="A482" t="s">
         <v>607</v>
       </c>
@@ -16223,7 +16499,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:9">
       <c r="A483" t="s">
         <v>607</v>
       </c>
@@ -16243,7 +16519,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:9">
       <c r="A484" t="s">
         <v>607</v>
       </c>
@@ -16263,7 +16539,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:9">
       <c r="A485" t="s">
         <v>607</v>
       </c>
@@ -16283,7 +16559,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:9">
       <c r="A486" t="s">
         <v>607</v>
       </c>
@@ -16303,7 +16579,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:9">
       <c r="A487" t="s">
         <v>607</v>
       </c>
@@ -16323,7 +16599,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:9">
       <c r="A488" t="s">
         <v>607</v>
       </c>
@@ -16343,7 +16619,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:9">
       <c r="A489" t="s">
         <v>607</v>
       </c>
@@ -16363,7 +16639,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:9">
       <c r="A490" t="s">
         <v>607</v>
       </c>
@@ -16383,7 +16659,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:9">
       <c r="A491" t="s">
         <v>607</v>
       </c>
@@ -16403,7 +16679,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:9">
       <c r="A492" t="s">
         <v>607</v>
       </c>
@@ -16423,7 +16699,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:9">
       <c r="A493" t="s">
         <v>607</v>
       </c>
@@ -16443,7 +16719,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:9">
       <c r="A494" t="s">
         <v>607</v>
       </c>
@@ -16463,7 +16739,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:9">
       <c r="A495" t="s">
         <v>607</v>
       </c>
@@ -16483,7 +16759,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:9">
       <c r="A496" t="s">
         <v>607</v>
       </c>
@@ -16503,7 +16779,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:9">
       <c r="A497" t="s">
         <v>607</v>
       </c>
@@ -16523,7 +16799,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:9">
       <c r="A498" t="s">
         <v>607</v>
       </c>
@@ -16543,7 +16819,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:9">
       <c r="A499" t="s">
         <v>607</v>
       </c>
@@ -16563,7 +16839,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:9">
       <c r="A500" t="s">
         <v>607</v>
       </c>
@@ -16583,7 +16859,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:9">
       <c r="A501" t="s">
         <v>607</v>
       </c>
@@ -16603,7 +16879,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:9">
       <c r="A502" t="s">
         <v>607</v>
       </c>
@@ -16623,7 +16899,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:9">
       <c r="A503" t="s">
         <v>607</v>
       </c>
@@ -16643,7 +16919,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:9">
       <c r="A504" t="s">
         <v>607</v>
       </c>
@@ -16663,7 +16939,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:9">
       <c r="A505" t="s">
         <v>607</v>
       </c>
@@ -16683,7 +16959,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:9">
       <c r="A506" t="s">
         <v>607</v>
       </c>
@@ -16703,7 +16979,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:9">
       <c r="A507" t="s">
         <v>607</v>
       </c>
@@ -16723,7 +16999,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:9">
       <c r="A508" t="s">
         <v>607</v>
       </c>
@@ -16743,7 +17019,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:9">
       <c r="A509" t="s">
         <v>607</v>
       </c>
@@ -16763,7 +17039,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:9">
       <c r="A510" t="s">
         <v>607</v>
       </c>
@@ -16783,7 +17059,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:9">
       <c r="A511" t="s">
         <v>607</v>
       </c>
@@ -16803,7 +17079,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:9">
       <c r="A512" t="s">
         <v>607</v>
       </c>
@@ -16823,7 +17099,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:9">
       <c r="A513" t="s">
         <v>607</v>
       </c>
@@ -16843,7 +17119,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:9">
       <c r="A514" t="s">
         <v>607</v>
       </c>
@@ -16863,7 +17139,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:9">
       <c r="A515" t="s">
         <v>607</v>
       </c>
@@ -16883,7 +17159,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:9">
       <c r="A516" t="s">
         <v>607</v>
       </c>
@@ -16903,7 +17179,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:9">
       <c r="A517" t="s">
         <v>607</v>
       </c>
@@ -16923,7 +17199,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:9">
       <c r="A518" t="s">
         <v>607</v>
       </c>
@@ -16943,7 +17219,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:9">
       <c r="A519" t="s">
         <v>607</v>
       </c>
@@ -16963,7 +17239,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:9">
       <c r="A520" t="s">
         <v>607</v>
       </c>
@@ -16983,7 +17259,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:9">
       <c r="A521" t="s">
         <v>607</v>
       </c>
@@ -17003,7 +17279,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:9">
       <c r="A522" t="s">
         <v>607</v>
       </c>
@@ -17023,7 +17299,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:9">
       <c r="A523" t="s">
         <v>607</v>
       </c>
@@ -17043,7 +17319,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:9">
       <c r="A524" t="s">
         <v>607</v>
       </c>
@@ -17063,7 +17339,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:9">
       <c r="A525" t="s">
         <v>607</v>
       </c>
@@ -17083,7 +17359,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:9">
       <c r="A526" t="s">
         <v>607</v>
       </c>
@@ -17103,7 +17379,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:9">
       <c r="A527" t="s">
         <v>607</v>
       </c>
@@ -17123,7 +17399,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:9">
       <c r="A528" t="s">
         <v>607</v>
       </c>
@@ -17143,7 +17419,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:9">
       <c r="A529" t="s">
         <v>607</v>
       </c>
@@ -17163,7 +17439,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:9">
       <c r="A530" t="s">
         <v>607</v>
       </c>
@@ -17183,7 +17459,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:9">
       <c r="A531" t="s">
         <v>607</v>
       </c>
@@ -17203,7 +17479,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:9">
       <c r="A532" t="s">
         <v>607</v>
       </c>
@@ -17223,7 +17499,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:9">
       <c r="A533" t="s">
         <v>607</v>
       </c>
@@ -17243,7 +17519,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:9">
       <c r="A534" t="s">
         <v>607</v>
       </c>
@@ -17263,7 +17539,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:9">
       <c r="A535" t="s">
         <v>607</v>
       </c>
@@ -17283,7 +17559,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:9">
       <c r="A536" t="s">
         <v>607</v>
       </c>
@@ -17303,7 +17579,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:9">
       <c r="A537" t="s">
         <v>607</v>
       </c>
@@ -17323,7 +17599,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:9">
       <c r="A538" t="s">
         <v>607</v>
       </c>
@@ -17343,7 +17619,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:9">
       <c r="A539" t="s">
         <v>607</v>
       </c>
@@ -17363,7 +17639,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:9">
       <c r="A540" t="s">
         <v>607</v>
       </c>
@@ -17383,7 +17659,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:9">
       <c r="A541" t="s">
         <v>607</v>
       </c>
@@ -17403,7 +17679,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:9">
       <c r="A542" t="s">
         <v>607</v>
       </c>
@@ -17423,7 +17699,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:9">
       <c r="A543" t="s">
         <v>607</v>
       </c>
@@ -17443,7 +17719,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:9">
       <c r="A544" t="s">
         <v>607</v>
       </c>
@@ -17463,7 +17739,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:9">
       <c r="A545" t="s">
         <v>607</v>
       </c>
@@ -17483,7 +17759,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:9">
       <c r="A546" t="s">
         <v>607</v>
       </c>
@@ -17503,7 +17779,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:9">
       <c r="A547" t="s">
         <v>607</v>
       </c>
@@ -17523,7 +17799,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:9">
       <c r="A548" t="s">
         <v>607</v>
       </c>
@@ -17543,7 +17819,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:9">
       <c r="A549" t="s">
         <v>607</v>
       </c>
@@ -17563,7 +17839,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:9">
       <c r="A550" t="s">
         <v>607</v>
       </c>
@@ -17583,7 +17859,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:9">
       <c r="A551" t="s">
         <v>607</v>
       </c>
@@ -17603,7 +17879,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:9">
       <c r="A552" t="s">
         <v>607</v>
       </c>
@@ -17623,7 +17899,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:9">
       <c r="A553" t="s">
         <v>607</v>
       </c>
@@ -17643,7 +17919,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:9">
       <c r="A554" t="s">
         <v>607</v>
       </c>
@@ -17663,7 +17939,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:9">
       <c r="A555" t="s">
         <v>607</v>
       </c>
@@ -17683,7 +17959,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:9">
       <c r="A556" t="s">
         <v>607</v>
       </c>
@@ -17703,7 +17979,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:9">
       <c r="A557" t="s">
         <v>995</v>
       </c>
@@ -17726,7 +18002,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:9">
       <c r="A558" t="s">
         <v>995</v>
       </c>
@@ -17749,7 +18025,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:9">
       <c r="A559" t="s">
         <v>995</v>
       </c>
@@ -17772,7 +18048,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:9">
       <c r="A560" t="s">
         <v>995</v>
       </c>
@@ -17795,7 +18071,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:9">
       <c r="A561" t="s">
         <v>995</v>
       </c>
@@ -17818,7 +18094,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:9">
       <c r="A562" t="s">
         <v>995</v>
       </c>
@@ -17841,7 +18117,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:9">
       <c r="A563" t="s">
         <v>995</v>
       </c>
@@ -17864,7 +18140,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:9">
       <c r="A564" t="s">
         <v>995</v>
       </c>
@@ -17887,7 +18163,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:9">
       <c r="A565" t="s">
         <v>995</v>
       </c>
@@ -17910,7 +18186,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:9">
       <c r="A566" t="s">
         <v>995</v>
       </c>
@@ -17933,7 +18209,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:9">
       <c r="A567" t="s">
         <v>995</v>
       </c>
@@ -17956,7 +18232,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:9">
       <c r="A568" t="s">
         <v>995</v>
       </c>
@@ -17979,7 +18255,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:9">
       <c r="A569" t="s">
         <v>995</v>
       </c>
@@ -18002,7 +18278,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:9">
       <c r="A570" t="s">
         <v>1091</v>
       </c>
@@ -18027,7 +18303,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:9">
       <c r="A571" t="s">
         <v>1091</v>
       </c>
@@ -18052,7 +18328,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:9">
       <c r="A572" t="s">
         <v>1091</v>
       </c>
@@ -18077,7 +18353,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:9">
       <c r="A573" t="s">
         <v>1091</v>
       </c>
@@ -18102,7 +18378,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:9">
       <c r="A574" t="s">
         <v>1091</v>
       </c>
@@ -18127,7 +18403,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:9">
       <c r="A575" t="s">
         <v>642</v>
       </c>
@@ -18150,7 +18426,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:9">
       <c r="A576" t="s">
         <v>642</v>
       </c>
@@ -18173,7 +18449,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:9">
       <c r="A577" t="s">
         <v>642</v>
       </c>
@@ -18196,7 +18472,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:9">
       <c r="A578" t="s">
         <v>642</v>
       </c>
@@ -18219,7 +18495,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:9">
       <c r="A579" t="s">
         <v>642</v>
       </c>
@@ -18242,7 +18518,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:9">
       <c r="A580" t="s">
         <v>642</v>
       </c>
@@ -18265,7 +18541,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:9">
       <c r="A581" t="s">
         <v>642</v>
       </c>
@@ -18288,7 +18564,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:9">
       <c r="A582" t="s">
         <v>642</v>
       </c>
@@ -18311,7 +18587,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:9">
       <c r="A583" t="s">
         <v>642</v>
       </c>
@@ -18334,7 +18610,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:9">
       <c r="A584" t="s">
         <v>642</v>
       </c>
@@ -18357,7 +18633,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:9">
       <c r="A585" t="s">
         <v>642</v>
       </c>
@@ -18380,7 +18656,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:9">
       <c r="A586" t="s">
         <v>642</v>
       </c>
@@ -18403,7 +18679,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:9">
       <c r="A587" t="s">
         <v>1042</v>
       </c>
@@ -18426,7 +18702,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:9">
       <c r="A588" t="s">
         <v>642</v>
       </c>
@@ -18449,7 +18725,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:9">
       <c r="A589" t="s">
         <v>642</v>
       </c>
@@ -18472,7 +18748,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:9">
       <c r="A590" t="s">
         <v>642</v>
       </c>
@@ -18495,7 +18771,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:9">
       <c r="A591" t="s">
         <v>642</v>
       </c>
@@ -18518,7 +18794,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:9">
       <c r="A592" t="s">
         <v>642</v>
       </c>
@@ -18541,7 +18817,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:9">
       <c r="A593" t="s">
         <v>642</v>
       </c>
@@ -18564,7 +18840,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:9">
       <c r="A594" t="s">
         <v>642</v>
       </c>
@@ -18587,7 +18863,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:9">
       <c r="A595" t="s">
         <v>642</v>
       </c>
@@ -18610,7 +18886,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:9">
       <c r="A596" t="s">
         <v>642</v>
       </c>
@@ -18636,7 +18912,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:9">
       <c r="A597" t="s">
         <v>642</v>
       </c>
@@ -18662,7 +18938,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:9">
       <c r="A598" t="s">
         <v>642</v>
       </c>
@@ -18688,7 +18964,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:9">
       <c r="A599" t="s">
         <v>642</v>
       </c>
@@ -18714,7 +18990,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:9">
       <c r="A600" t="s">
         <v>642</v>
       </c>
@@ -18740,7 +19016,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:9">
       <c r="A601" t="s">
         <v>642</v>
       </c>
@@ -18766,7 +19042,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:9">
       <c r="A602" t="s">
         <v>642</v>
       </c>
@@ -18792,7 +19068,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:9">
       <c r="A603" t="s">
         <v>642</v>
       </c>
@@ -18818,7 +19094,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:9">
       <c r="A604" t="s">
         <v>642</v>
       </c>
@@ -18844,7 +19120,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:9">
       <c r="A605" t="s">
         <v>642</v>
       </c>
@@ -18870,7 +19146,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:9">
       <c r="A606" t="s">
         <v>642</v>
       </c>
@@ -18896,7 +19172,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:9">
       <c r="A607" t="s">
         <v>642</v>
       </c>
@@ -18922,7 +19198,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:9">
       <c r="A608" t="s">
         <v>642</v>
       </c>
@@ -18945,7 +19221,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:9">
       <c r="A609" t="s">
         <v>642</v>
       </c>
@@ -18968,7 +19244,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:9">
       <c r="A610" t="s">
         <v>642</v>
       </c>
@@ -18991,7 +19267,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:9">
       <c r="A611" t="s">
         <v>642</v>
       </c>
@@ -19014,7 +19290,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:9">
       <c r="A612" t="s">
         <v>642</v>
       </c>
@@ -19037,7 +19313,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:9">
       <c r="A613" t="s">
         <v>642</v>
       </c>
@@ -19060,7 +19336,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:9">
       <c r="A614" t="s">
         <v>642</v>
       </c>
@@ -19083,7 +19359,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:9">
       <c r="A615" t="s">
         <v>642</v>
       </c>
@@ -19106,7 +19382,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:9">
       <c r="A616" t="s">
         <v>642</v>
       </c>
@@ -19129,7 +19405,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:9">
       <c r="A617" t="s">
         <v>642</v>
       </c>
@@ -19152,7 +19428,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:9">
       <c r="A618" t="s">
         <v>642</v>
       </c>
@@ -19175,7 +19451,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:9">
       <c r="A619" t="s">
         <v>642</v>
       </c>
@@ -19198,7 +19474,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:9">
       <c r="A620" t="s">
         <v>642</v>
       </c>
@@ -19221,7 +19497,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:9">
       <c r="A621" t="s">
         <v>642</v>
       </c>
@@ -19244,7 +19520,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:9">
       <c r="A622" t="s">
         <v>642</v>
       </c>
@@ -19267,7 +19543,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:9">
       <c r="A623" t="s">
         <v>642</v>
       </c>
@@ -19290,7 +19566,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:9">
       <c r="A624" t="s">
         <v>642</v>
       </c>
@@ -19313,7 +19589,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:9">
       <c r="A625" t="s">
         <v>642</v>
       </c>
@@ -19336,7 +19612,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:9">
       <c r="A626" t="s">
         <v>642</v>
       </c>
@@ -19359,7 +19635,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:9">
       <c r="A627" t="s">
         <v>642</v>
       </c>
@@ -19382,7 +19658,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:9">
       <c r="A628" t="s">
         <v>642</v>
       </c>
@@ -19405,7 +19681,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="629" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:9">
       <c r="A629" t="s">
         <v>642</v>
       </c>
@@ -19428,7 +19704,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:9">
       <c r="A630" t="s">
         <v>642</v>
       </c>
@@ -19451,7 +19727,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:9">
       <c r="A631" t="s">
         <v>642</v>
       </c>
@@ -19474,7 +19750,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:9">
       <c r="A632" t="s">
         <v>642</v>
       </c>
@@ -19497,7 +19773,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:9">
       <c r="A633" t="s">
         <v>642</v>
       </c>
@@ -19520,7 +19796,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:9">
       <c r="A634" t="s">
         <v>642</v>
       </c>
@@ -19543,7 +19819,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:9">
       <c r="A635" t="s">
         <v>642</v>
       </c>
@@ -19566,7 +19842,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:9">
       <c r="A636" t="s">
         <v>642</v>
       </c>
@@ -19589,7 +19865,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:9">
       <c r="A637" t="s">
         <v>642</v>
       </c>
@@ -19612,7 +19888,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:9">
       <c r="A638" t="s">
         <v>642</v>
       </c>
@@ -19635,7 +19911,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:9">
       <c r="A639" t="s">
         <v>642</v>
       </c>
@@ -19658,7 +19934,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:9">
       <c r="A640" t="s">
         <v>642</v>
       </c>
@@ -19681,7 +19957,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:9">
       <c r="A641" t="s">
         <v>642</v>
       </c>
@@ -19704,7 +19980,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:9">
       <c r="A642" t="s">
         <v>642</v>
       </c>
@@ -19727,7 +20003,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:9">
       <c r="A643" t="s">
         <v>642</v>
       </c>
@@ -19750,7 +20026,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:9">
       <c r="A644" t="s">
         <v>642</v>
       </c>
@@ -19773,7 +20049,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:9">
       <c r="A645" t="s">
         <v>642</v>
       </c>
@@ -19796,7 +20072,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:9">
       <c r="A646" t="s">
         <v>642</v>
       </c>
@@ -19819,7 +20095,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="647" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:9">
       <c r="A647" t="s">
         <v>642</v>
       </c>
@@ -19842,7 +20118,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:9">
       <c r="A648" t="s">
         <v>642</v>
       </c>
@@ -19865,7 +20141,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:9">
       <c r="A649" t="s">
         <v>642</v>
       </c>
@@ -19888,7 +20164,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="650" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:9">
       <c r="A650" t="s">
         <v>642</v>
       </c>
@@ -19911,7 +20187,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:9">
       <c r="A651" t="s">
         <v>642</v>
       </c>
@@ -19934,7 +20210,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="652" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:9">
       <c r="A652" t="s">
         <v>642</v>
       </c>
@@ -19957,7 +20233,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:9">
       <c r="A653" t="s">
         <v>642</v>
       </c>
@@ -19980,7 +20256,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:9">
       <c r="A654" t="s">
         <v>642</v>
       </c>
@@ -20021,14 +20297,14 @@
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="B11" t="s">
         <v>1069</v>
       </c>
@@ -20036,12 +20312,12 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="C12" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="D13" t="s">
         <v>1072</v>
       </c>
@@ -20049,7 +20325,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="D14" t="s">
         <v>1073</v>
       </c>
@@ -20060,7 +20336,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="E15" t="s">
         <v>1075</v>
       </c>
@@ -20076,27 +20352,433 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9300BC-7A7F-40A2-A98A-7096C9B63CAB}">
-  <dimension ref="A6:B6"/>
+  <dimension ref="B3:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="20.58203125" customWidth="1"/>
+    <col min="2" max="2" width="110.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.08203125" customWidth="1"/>
+    <col min="8" max="8" width="61.25" customWidth="1"/>
+    <col min="9" max="9" width="75.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1092</v>
+    <row r="3" spans="2:4" ht="22.5">
+      <c r="B3" s="68"/>
+    </row>
+    <row r="4" spans="2:4" ht="22.5">
+      <c r="B4" s="68"/>
+    </row>
+    <row r="5" spans="2:4" ht="22.5">
+      <c r="B5" s="68"/>
+    </row>
+    <row r="6" spans="2:4" ht="23">
+      <c r="B6" s="69" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="23">
+      <c r="B7" s="69" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="23">
+      <c r="B8" s="69" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="23">
+      <c r="B9" s="69" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="23">
+      <c r="B10" s="69" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="23">
+      <c r="B11" s="69" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="23">
+      <c r="B12" s="69" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="23">
+      <c r="B13" s="69" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="23">
+      <c r="B14" s="69" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="23">
+      <c r="B15" s="69" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="22.5">
+      <c r="B16" s="68"/>
+    </row>
+    <row r="17" spans="2:9" ht="22.5">
+      <c r="B17" s="68"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" t="s">
+        <v>1150</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="70" t="s">
+        <v>1114</v>
+      </c>
+      <c r="H22" s="70" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="14.5" thickBot="1"/>
+    <row r="24" spans="2:9" ht="14.5" thickBot="1">
+      <c r="B24" s="71" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C24" s="71" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H24" s="71" t="s">
+        <v>1115</v>
+      </c>
+      <c r="I24" s="71" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="14.5" thickBot="1">
+      <c r="B25" s="72" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C25" s="73" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H25" s="72" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I25" s="73" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="16.5" thickBot="1">
+      <c r="B26" s="72" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C26" s="73" t="s">
+        <v>1120</v>
+      </c>
+      <c r="H26" s="72" t="s">
+        <v>1119</v>
+      </c>
+      <c r="I26" s="73" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="16.5" thickBot="1">
+      <c r="B27" s="72" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C27" s="73" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H27" s="72" t="s">
+        <v>1121</v>
+      </c>
+      <c r="I27" s="73" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="16.5" thickBot="1">
+      <c r="B28" s="72" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C28" s="73" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H28" s="72" t="s">
+        <v>1123</v>
+      </c>
+      <c r="I28" s="73" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="16.5" thickBot="1">
+      <c r="B29" s="72" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C29" s="73" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H29" s="72" t="s">
+        <v>1125</v>
+      </c>
+      <c r="I29" s="73" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="14.5" thickBot="1">
+      <c r="B30" s="72" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C30" s="73" t="s">
+        <v>1128</v>
+      </c>
+      <c r="H30" s="72" t="s">
+        <v>1127</v>
+      </c>
+      <c r="I30" s="73" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="70" t="s">
+        <v>1129</v>
+      </c>
+      <c r="H35" s="70" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="14.5" thickBot="1"/>
+    <row r="37" spans="2:9" ht="14.5" thickBot="1">
+      <c r="B37" s="71" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C37" s="71" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H37" s="71" t="s">
+        <v>1115</v>
+      </c>
+      <c r="I37" s="71" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="14.5" thickBot="1">
+      <c r="B38" s="72" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C38" s="73" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H38" s="72" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I38" s="73" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="16.5" thickBot="1">
+      <c r="B39" s="72" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C39" s="73" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H39" s="72" t="s">
+        <v>1152</v>
+      </c>
+      <c r="I39" s="73" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="16.5" thickBot="1">
+      <c r="B40" s="72" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C40" s="73" t="s">
+        <v>1133</v>
+      </c>
+      <c r="H40" s="72" t="s">
+        <v>1136</v>
+      </c>
+      <c r="I40" s="73" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="16.5" thickBot="1">
+      <c r="B41" s="72" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C41" s="73" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H41" s="72" t="s">
+        <v>1138</v>
+      </c>
+      <c r="I41" s="73" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="16.5" thickBot="1">
+      <c r="B42" s="72" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C42" s="73" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H42" s="72" t="s">
+        <v>1140</v>
+      </c>
+      <c r="I42" s="73" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="16.5" thickBot="1">
+      <c r="B43" s="72" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C43" s="73" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H43" s="72" t="s">
+        <v>1142</v>
+      </c>
+      <c r="I43" s="73" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="14.5" thickBot="1">
+      <c r="B44" s="72" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C44" s="73" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H44" s="72" t="s">
+        <v>1156</v>
+      </c>
+      <c r="I44" s="73" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="14.5" thickBot="1">
+      <c r="B45" s="72" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C45" s="73" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H45" s="72" t="s">
+        <v>1127</v>
+      </c>
+      <c r="I45" s="73" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="16.5" thickBot="1">
+      <c r="B46" s="72" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C46" s="73" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="16.5" thickBot="1">
+      <c r="B47" s="72" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C47" s="73" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="16.5" thickBot="1">
+      <c r="B48" s="72" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C48" s="73" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="14.5" thickBot="1">
+      <c r="B49" s="72" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C49" s="73" t="s">
+        <v>1128</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B25" r:id="rId1" display="https://game.develop.playstation.net/resources/documents/SDK/9.000/SaveData-Reference/0006.html" xr:uid="{435B4F07-4200-41AD-BA8B-199C9F2EDC33}"/>
+    <hyperlink ref="B26" r:id="rId2" display="https://game.develop.playstation.net/resources/documents/SDK/9.000/SaveData-Reference/0055.html" xr:uid="{DAAA9810-8A55-4D69-9A30-B683A27E89A7}"/>
+    <hyperlink ref="B27" r:id="rId3" display="https://game.develop.playstation.net/resources/documents/SDK/9.000/SaveData-Reference/0054.html" xr:uid="{924DFB88-A603-467F-994F-694BDEABCED8}"/>
+    <hyperlink ref="B28" r:id="rId4" display="https://game.develop.playstation.net/resources/documents/SDK/9.000/SaveData-Reference/0053.html" xr:uid="{0CC23530-6159-4462-A523-54372ECD6D08}"/>
+    <hyperlink ref="B29" r:id="rId5" display="https://game.develop.playstation.net/resources/documents/SDK/9.000/SaveData-Reference/0056.html" xr:uid="{E39B7629-E249-4332-82A1-74BCCA2EB3A7}"/>
+    <hyperlink ref="B30" r:id="rId6" display="https://game.develop.playstation.net/resources/documents/SDK/9.000/SaveData-Reference/0007.html" xr:uid="{575BAB7E-05D4-4BD2-BA81-B490B0A3C6F4}"/>
+    <hyperlink ref="B38" r:id="rId7" display="https://game.develop.playstation.net/resources/documents/SDK/9.000/SaveData-Reference/0006.html" xr:uid="{CA3A26B7-EDD0-4332-B548-77CE762C0432}"/>
+    <hyperlink ref="B39" r:id="rId8" display="https://game.develop.playstation.net/resources/documents/SDK/9.000/SaveData-Reference/0009.html" xr:uid="{A67FD4A4-21C8-40C9-AC05-221A820B0495}"/>
+    <hyperlink ref="B40" r:id="rId9" display="https://game.develop.playstation.net/resources/documents/SDK/9.000/SaveData-Reference/0014.html" xr:uid="{DE943EAB-6F94-4CAF-BF9A-0F2F02073D67}"/>
+    <hyperlink ref="B41" r:id="rId10" display="https://game.develop.playstation.net/resources/documents/SDK/9.000/SaveData-Reference/0020.html" xr:uid="{A27CD832-0C89-4F6B-988D-71968C1D4B4A}"/>
+    <hyperlink ref="B42" r:id="rId11" display="https://game.develop.playstation.net/resources/documents/SDK/9.000/SaveData-Reference/0034.html" xr:uid="{AB7D2F43-FBAB-4F33-A5F4-CCD215E3A6A2}"/>
+    <hyperlink ref="B43" r:id="rId12" display="https://game.develop.playstation.net/resources/documents/SDK/9.000/SaveData-Reference/0030.html" xr:uid="{6A3B6162-DEAE-4901-8163-433DED68141B}"/>
+    <hyperlink ref="B44" r:id="rId13" display="https://game.develop.playstation.net/resources/documents/SDK/9.000/SaveData-Reference/0032.html" xr:uid="{A89BEAFA-A015-45F0-B6ED-54DC5FFDDA61}"/>
+    <hyperlink ref="B45" r:id="rId14" display="https://game.develop.playstation.net/resources/documents/SDK/9.000/SaveData-Reference/0031.html" xr:uid="{182428FE-2C64-4246-B355-FE18EE9CEBBA}"/>
+    <hyperlink ref="B46" r:id="rId15" display="https://game.develop.playstation.net/resources/documents/SDK/9.000/SaveData-Reference/0021.html" xr:uid="{741B6222-DCED-4233-A6F0-686388B51375}"/>
+    <hyperlink ref="B47" r:id="rId16" display="https://game.develop.playstation.net/resources/documents/SDK/9.000/SaveData-Reference/0017.html" xr:uid="{0167E3CD-25CF-4885-94A1-7EA0828B475A}"/>
+    <hyperlink ref="B48" r:id="rId17" display="https://game.develop.playstation.net/resources/documents/SDK/9.000/SaveData-Reference/0010.html" xr:uid="{813A16B8-DDCB-478F-8B84-6081397198ED}"/>
+    <hyperlink ref="B49" r:id="rId18" display="https://game.develop.playstation.net/resources/documents/SDK/9.000/SaveData-Reference/0007.html" xr:uid="{0B39EFBD-39CC-46AC-8FD9-817150A07B1F}"/>
+    <hyperlink ref="H25" r:id="rId19" display="https://ps4.develop.playstation.net/resources/documents/SDK/11.500/SaveData-Reference/0006.html" xr:uid="{815DCCB7-006F-4E60-9DA3-F896549CDF91}"/>
+    <hyperlink ref="H26" r:id="rId20" display="https://ps4.develop.playstation.net/resources/documents/SDK/11.500/SaveData-Reference/0047.html" xr:uid="{1C6E432D-5689-4F9A-9474-D86A2B94AA29}"/>
+    <hyperlink ref="H27" r:id="rId21" display="https://ps4.develop.playstation.net/resources/documents/SDK/11.500/SaveData-Reference/0046.html" xr:uid="{7215CECA-0645-41BB-908E-71F4B38989C4}"/>
+    <hyperlink ref="H28" r:id="rId22" display="https://ps4.develop.playstation.net/resources/documents/SDK/11.500/SaveData-Reference/0045.html" xr:uid="{3523AE07-8A25-4EC6-8F26-D4948BE444E3}"/>
+    <hyperlink ref="H29" r:id="rId23" display="https://ps4.develop.playstation.net/resources/documents/SDK/11.500/SaveData-Reference/0048.html" xr:uid="{62972AA1-3C52-4394-9B75-349DBC77519E}"/>
+    <hyperlink ref="H30" r:id="rId24" display="https://ps4.develop.playstation.net/resources/documents/SDK/11.500/SaveData-Reference/0007.html" xr:uid="{E75F6A44-0DF5-4CD6-BD16-0B7EAFF9BBF4}"/>
+    <hyperlink ref="H38" r:id="rId25" display="https://ps4.develop.playstation.net/resources/documents/SDK/11.500/SaveData-Reference/0006.html" xr:uid="{CD5699EA-C4EC-423B-A2C0-60970FEB6768}"/>
+    <hyperlink ref="H39" r:id="rId26" display="https://ps4.develop.playstation.net/resources/documents/SDK/11.500/SaveData-Reference/0011.html" xr:uid="{3217F405-D16F-45C6-ADCC-21B05126EFD7}"/>
+    <hyperlink ref="H40" r:id="rId27" display="https://ps4.develop.playstation.net/resources/documents/SDK/11.500/SaveData-Reference/0025.html" xr:uid="{5ADF86FC-2537-440D-86C0-19F6338B144C}"/>
+    <hyperlink ref="H41" r:id="rId28" display="https://ps4.develop.playstation.net/resources/documents/SDK/11.500/SaveData-Reference/0022.html" xr:uid="{8284FAE8-0CAD-4BC2-A089-EFF2F7C6FC1D}"/>
+    <hyperlink ref="H42" r:id="rId29" display="https://ps4.develop.playstation.net/resources/documents/SDK/11.500/SaveData-Reference/0024.html" xr:uid="{582F74A9-2D2C-4D20-8891-9816126E4DB5}"/>
+    <hyperlink ref="H43" r:id="rId30" display="https://ps4.develop.playstation.net/resources/documents/SDK/11.500/SaveData-Reference/0023.html" xr:uid="{133C483E-7558-4C99-95A2-31011AE2E5F6}"/>
+    <hyperlink ref="H44" r:id="rId31" display="https://ps4.develop.playstation.net/resources/documents/SDK/11.500/SaveData-Reference/0013.html" xr:uid="{25832B71-B836-420E-BFFB-E65D50B1C45C}"/>
+    <hyperlink ref="H45" r:id="rId32" display="https://ps4.develop.playstation.net/resources/documents/SDK/11.500/SaveData-Reference/0007.html" xr:uid="{EE2F948E-25DE-40E0-A688-F617912518EF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>